--- a/src/data/Europe and Central Asia/Mining.xlsx
+++ b/src/data/Europe and Central Asia/Mining.xlsx
@@ -2093,10 +2093,10 @@
         <v>10000</v>
       </c>
       <c r="AQ2">
-        <v>8757.59</v>
+        <v>8143.02</v>
       </c>
       <c r="AR2">
-        <v>6196.65</v>
+        <v>6729.7</v>
       </c>
       <c r="AS2" t="s">
         <v>110</v>
@@ -2105,10 +2105,10 @@
         <v>10000</v>
       </c>
       <c r="AU2">
-        <v>8676.290000000001</v>
+        <v>8663.1</v>
       </c>
       <c r="AV2">
-        <v>5831.65</v>
+        <v>7923.36</v>
       </c>
       <c r="AW2" t="s">
         <v>110</v>
@@ -2117,10 +2117,10 @@
         <v>10000</v>
       </c>
       <c r="AY2">
-        <v>6470.62</v>
+        <v>6812.94</v>
       </c>
       <c r="AZ2">
-        <v>5512.31</v>
+        <v>5617.96</v>
       </c>
       <c r="BA2" t="s">
         <v>110</v>
@@ -2129,10 +2129,10 @@
         <v>10000</v>
       </c>
       <c r="BC2">
-        <v>8113.11</v>
+        <v>8424.860000000001</v>
       </c>
       <c r="BD2">
-        <v>7633.34</v>
+        <v>6827.2</v>
       </c>
       <c r="BE2" t="s">
         <v>110</v>
@@ -2141,10 +2141,10 @@
         <v>10000</v>
       </c>
       <c r="BG2">
-        <v>9234.98</v>
+        <v>7149.89</v>
       </c>
       <c r="BH2">
-        <v>5548.96</v>
+        <v>5720.74</v>
       </c>
       <c r="BI2" t="s">
         <v>110</v>
@@ -2153,10 +2153,10 @@
         <v>725155</v>
       </c>
       <c r="BK2">
-        <v>554157.72</v>
+        <v>550420.41</v>
       </c>
       <c r="BL2">
-        <v>503301.31</v>
+        <v>446506.61</v>
       </c>
       <c r="BM2" t="s">
         <v>110</v>
@@ -2165,10 +2165,10 @@
         <v>41851.66666666666</v>
       </c>
       <c r="BO2">
-        <v>32711.2</v>
+        <v>32093.82</v>
       </c>
       <c r="BP2">
-        <v>24332.51</v>
+        <v>22058.95</v>
       </c>
       <c r="BQ2" t="s">
         <v>110</v>
@@ -2177,10 +2177,10 @@
         <v>41851.66666666666</v>
       </c>
       <c r="BS2">
-        <v>26516.1</v>
+        <v>34474.3</v>
       </c>
       <c r="BT2">
-        <v>18588.89</v>
+        <v>28396.7</v>
       </c>
       <c r="BU2" t="s">
         <v>110</v>
@@ -2189,10 +2189,10 @@
         <v>41851.66666666666</v>
       </c>
       <c r="BW2">
-        <v>27108.11</v>
+        <v>29911.97</v>
       </c>
       <c r="BX2">
-        <v>19004.72</v>
+        <v>23798.43</v>
       </c>
       <c r="BY2" t="s">
         <v>110</v>
@@ -2201,10 +2201,10 @@
         <v>41851.66666666666</v>
       </c>
       <c r="CA2">
-        <v>38006.74</v>
+        <v>29887.29</v>
       </c>
       <c r="CB2">
-        <v>32974.17</v>
+        <v>23638.82</v>
       </c>
       <c r="CC2" t="s">
         <v>110</v>
@@ -2213,10 +2213,10 @@
         <v>41851.66666666666</v>
       </c>
       <c r="CE2">
-        <v>26069.84</v>
+        <v>33638.38</v>
       </c>
       <c r="CF2">
-        <v>19625.98</v>
+        <v>22499.04</v>
       </c>
       <c r="CG2" t="s">
         <v>110</v>
@@ -2341,10 +2341,10 @@
         <v>351469</v>
       </c>
       <c r="AQ3">
-        <v>233170.7</v>
+        <v>248566.07</v>
       </c>
       <c r="AR3">
-        <v>197397.67</v>
+        <v>223391.45</v>
       </c>
       <c r="AS3" t="s">
         <v>110</v>
@@ -2353,10 +2353,10 @@
         <v>351469</v>
       </c>
       <c r="AU3">
-        <v>320770.45</v>
+        <v>268450.78</v>
       </c>
       <c r="AV3">
-        <v>275038.1</v>
+        <v>210756.59</v>
       </c>
       <c r="AW3" t="s">
         <v>110</v>
@@ -2365,10 +2365,10 @@
         <v>351469</v>
       </c>
       <c r="AY3">
-        <v>215451.76</v>
+        <v>289731.39</v>
       </c>
       <c r="AZ3">
-        <v>147863.19</v>
+        <v>268481.51</v>
       </c>
       <c r="BA3" t="s">
         <v>110</v>
@@ -2377,10 +2377,10 @@
         <v>351469</v>
       </c>
       <c r="BC3">
-        <v>214618.6</v>
+        <v>290340.79</v>
       </c>
       <c r="BD3">
-        <v>150501.52</v>
+        <v>231886.28</v>
       </c>
       <c r="BE3" t="s">
         <v>110</v>
@@ -2389,10 +2389,10 @@
         <v>351469</v>
       </c>
       <c r="BG3">
-        <v>309759.91</v>
+        <v>314033.4</v>
       </c>
       <c r="BH3">
-        <v>278535.85</v>
+        <v>215186.37</v>
       </c>
       <c r="BI3" t="s">
         <v>110</v>
@@ -2401,10 +2401,10 @@
         <v>351469</v>
       </c>
       <c r="BK3">
-        <v>329468.28</v>
+        <v>299157.77</v>
       </c>
       <c r="BL3">
-        <v>261019.45</v>
+        <v>238701.05</v>
       </c>
       <c r="BM3" t="s">
         <v>422</v>
@@ -2413,10 +2413,10 @@
         <v>349871</v>
       </c>
       <c r="BO3">
-        <v>331077.28</v>
+        <v>273316.43</v>
       </c>
       <c r="BP3">
-        <v>291530.09</v>
+        <v>214139.42</v>
       </c>
       <c r="BQ3" t="s">
         <v>110</v>
@@ -2425,10 +2425,10 @@
         <v>349871</v>
       </c>
       <c r="BS3">
-        <v>282309.19</v>
+        <v>323735.13</v>
       </c>
       <c r="BT3">
-        <v>233177.83</v>
+        <v>286126.07</v>
       </c>
       <c r="BU3" t="s">
         <v>110</v>
@@ -2437,10 +2437,10 @@
         <v>349871</v>
       </c>
       <c r="BW3">
-        <v>252423.88</v>
+        <v>277064.75</v>
       </c>
       <c r="BX3">
-        <v>183089.8</v>
+        <v>235868.06</v>
       </c>
       <c r="BY3" t="s">
         <v>110</v>
@@ -2449,10 +2449,10 @@
         <v>349871</v>
       </c>
       <c r="CA3">
-        <v>283526.84</v>
+        <v>261226.24</v>
       </c>
       <c r="CB3">
-        <v>239435.32</v>
+        <v>244504.02</v>
       </c>
       <c r="CC3" t="s">
         <v>110</v>
@@ -2461,10 +2461,10 @@
         <v>349871</v>
       </c>
       <c r="CE3">
-        <v>232719.74</v>
+        <v>267176.7</v>
       </c>
       <c r="CF3">
-        <v>211851.32</v>
+        <v>221580.83</v>
       </c>
       <c r="CG3" t="s">
         <v>110</v>
@@ -2595,10 +2595,10 @@
         <v>1136206</v>
       </c>
       <c r="AQ4">
-        <v>1037989.3</v>
+        <v>886165.76</v>
       </c>
       <c r="AR4">
-        <v>900397.71</v>
+        <v>719860.11</v>
       </c>
       <c r="AS4" t="s">
         <v>110</v>
@@ -2607,10 +2607,10 @@
         <v>1136206</v>
       </c>
       <c r="AU4">
-        <v>732603.7</v>
+        <v>775475.49</v>
       </c>
       <c r="AV4">
-        <v>622332.8100000001</v>
+        <v>691250.33</v>
       </c>
       <c r="AW4" t="s">
         <v>110</v>
@@ -2619,10 +2619,10 @@
         <v>1136206</v>
       </c>
       <c r="AY4">
-        <v>809318.49</v>
+        <v>958582.11</v>
       </c>
       <c r="AZ4">
-        <v>608032.5</v>
+        <v>760038.1</v>
       </c>
       <c r="BA4" t="s">
         <v>110</v>
@@ -2631,10 +2631,10 @@
         <v>747934</v>
       </c>
       <c r="BC4">
-        <v>522396.72</v>
+        <v>532312.6800000001</v>
       </c>
       <c r="BD4">
-        <v>493053.41</v>
+        <v>383908.5</v>
       </c>
       <c r="BE4" t="s">
         <v>110</v>
@@ -2643,10 +2643,10 @@
         <v>1546096</v>
       </c>
       <c r="BG4">
-        <v>1366545.26</v>
+        <v>1105853.07</v>
       </c>
       <c r="BH4">
-        <v>859249.53</v>
+        <v>974414.49</v>
       </c>
       <c r="BI4" t="s">
         <v>110</v>
@@ -2655,10 +2655,10 @@
         <v>1546096</v>
       </c>
       <c r="BK4">
-        <v>1173724</v>
+        <v>1288407.88</v>
       </c>
       <c r="BL4">
-        <v>1045651.11</v>
+        <v>1001508.76</v>
       </c>
       <c r="BM4" t="s">
         <v>110</v>
@@ -2667,10 +2667,10 @@
         <v>1546096</v>
       </c>
       <c r="BO4">
-        <v>1096163.02</v>
+        <v>1386423.82</v>
       </c>
       <c r="BP4">
-        <v>958128.63</v>
+        <v>1122521.16</v>
       </c>
       <c r="BQ4" t="s">
         <v>110</v>
@@ -2679,10 +2679,10 @@
         <v>1546096</v>
       </c>
       <c r="BS4">
-        <v>1313271.39</v>
+        <v>1336560.1</v>
       </c>
       <c r="BT4">
-        <v>917014.24</v>
+        <v>1027129.03</v>
       </c>
       <c r="BU4" t="s">
         <v>110</v>
@@ -2691,10 +2691,10 @@
         <v>1546096</v>
       </c>
       <c r="BW4">
-        <v>1233663.03</v>
+        <v>1342847.93</v>
       </c>
       <c r="BX4">
-        <v>830173.78</v>
+        <v>1172352.09</v>
       </c>
       <c r="BY4" t="s">
         <v>110</v>
@@ -2703,10 +2703,10 @@
         <v>1546096</v>
       </c>
       <c r="CA4">
-        <v>1152404.4</v>
+        <v>1153940.58</v>
       </c>
       <c r="CB4">
-        <v>843055.54</v>
+        <v>805812.55</v>
       </c>
       <c r="CC4" t="s">
         <v>110</v>
@@ -2715,10 +2715,10 @@
         <v>1546096</v>
       </c>
       <c r="CE4">
-        <v>1339839.03</v>
+        <v>1258511.15</v>
       </c>
       <c r="CF4">
-        <v>1093901.32</v>
+        <v>1053178.06</v>
       </c>
       <c r="CG4" t="s">
         <v>110</v>
@@ -2843,10 +2843,10 @@
         <v>5397</v>
       </c>
       <c r="AQ5">
-        <v>3829.63</v>
+        <v>4029.42</v>
       </c>
       <c r="AR5">
-        <v>2771.69</v>
+        <v>3819.08</v>
       </c>
       <c r="AS5" t="s">
         <v>110</v>
@@ -2855,10 +2855,10 @@
         <v>5397</v>
       </c>
       <c r="AU5">
-        <v>3784.78</v>
+        <v>4268.39</v>
       </c>
       <c r="AV5">
-        <v>2921.81</v>
+        <v>3729.6</v>
       </c>
       <c r="AW5" t="s">
         <v>110</v>
@@ -2867,10 +2867,10 @@
         <v>5397</v>
       </c>
       <c r="AY5">
-        <v>5061.6</v>
+        <v>4341.26</v>
       </c>
       <c r="AZ5">
-        <v>3156.72</v>
+        <v>3482.26</v>
       </c>
       <c r="BA5" t="s">
         <v>110</v>
@@ -2879,10 +2879,10 @@
         <v>5397</v>
       </c>
       <c r="BC5">
-        <v>3488.77</v>
+        <v>4233.85</v>
       </c>
       <c r="BD5">
-        <v>3085.21</v>
+        <v>3516.72</v>
       </c>
       <c r="BE5" t="s">
         <v>110</v>
@@ -2891,10 +2891,10 @@
         <v>5397</v>
       </c>
       <c r="BG5">
-        <v>4521.16</v>
+        <v>4284.09</v>
       </c>
       <c r="BH5">
-        <v>4222.16</v>
+        <v>3144.19</v>
       </c>
       <c r="BI5" t="s">
         <v>110</v>
@@ -2903,10 +2903,10 @@
         <v>5397</v>
       </c>
       <c r="BK5">
-        <v>4808.09</v>
+        <v>4845.33</v>
       </c>
       <c r="BL5">
-        <v>3422.32</v>
+        <v>3753.22</v>
       </c>
       <c r="BM5" t="s">
         <v>110</v>
@@ -2915,10 +2915,10 @@
         <v>9230859</v>
       </c>
       <c r="BO5">
-        <v>6950354.37</v>
+        <v>7559465.07</v>
       </c>
       <c r="BP5">
-        <v>6286627.99</v>
+        <v>6461653.19</v>
       </c>
       <c r="BQ5" t="s">
         <v>425</v>
@@ -2927,10 +2927,10 @@
         <v>29033989</v>
       </c>
       <c r="BS5">
-        <v>24027787.78</v>
+        <v>25548222.56</v>
       </c>
       <c r="BT5">
-        <v>15406413.23</v>
+        <v>20603959.23</v>
       </c>
       <c r="BU5" t="s">
         <v>434</v>
@@ -2939,10 +2939,10 @@
         <v>23675228</v>
       </c>
       <c r="BW5">
-        <v>15776731.47</v>
+        <v>19770204.61</v>
       </c>
       <c r="BX5">
-        <v>13425003.69</v>
+        <v>17773513.36</v>
       </c>
       <c r="BY5" t="s">
         <v>110</v>
@@ -2951,10 +2951,10 @@
         <v>23675228</v>
       </c>
       <c r="CA5">
-        <v>15531874.12</v>
+        <v>15964431.22</v>
       </c>
       <c r="CB5">
-        <v>13687573.11</v>
+        <v>13941532.16</v>
       </c>
       <c r="CC5" t="s">
         <v>110</v>
@@ -2963,10 +2963,10 @@
         <v>23675228</v>
       </c>
       <c r="CE5">
-        <v>14598008.06</v>
+        <v>17179340.46</v>
       </c>
       <c r="CF5">
-        <v>11938045.09</v>
+        <v>12797141.78</v>
       </c>
       <c r="CG5" t="s">
         <v>110</v>
@@ -3091,10 +3091,10 @@
         <v>605311</v>
       </c>
       <c r="AQ6">
-        <v>403292.45</v>
+        <v>388651.66</v>
       </c>
       <c r="AR6">
-        <v>358293.71</v>
+        <v>319976.95</v>
       </c>
       <c r="AS6" t="s">
         <v>110</v>
@@ -3103,10 +3103,10 @@
         <v>605311</v>
       </c>
       <c r="AU6">
-        <v>426793.26</v>
+        <v>506278.13</v>
       </c>
       <c r="AV6">
-        <v>268632.53</v>
+        <v>393101.59</v>
       </c>
       <c r="AW6" t="s">
         <v>110</v>
@@ -3115,10 +3115,10 @@
         <v>605311</v>
       </c>
       <c r="AY6">
-        <v>398987.12</v>
+        <v>437363.67</v>
       </c>
       <c r="AZ6">
-        <v>267746.9</v>
+        <v>410040.2</v>
       </c>
       <c r="BA6" t="s">
         <v>110</v>
@@ -3127,10 +3127,10 @@
         <v>605311</v>
       </c>
       <c r="BC6">
-        <v>421353.26</v>
+        <v>444199.19</v>
       </c>
       <c r="BD6">
-        <v>379728.21</v>
+        <v>330092.67</v>
       </c>
       <c r="BE6" t="s">
         <v>110</v>
@@ -3139,10 +3139,10 @@
         <v>605311</v>
       </c>
       <c r="BG6">
-        <v>388686.52</v>
+        <v>575045.45</v>
       </c>
       <c r="BH6">
-        <v>237521.91</v>
+        <v>405853.5</v>
       </c>
       <c r="BI6" t="s">
         <v>110</v>
@@ -3151,10 +3151,10 @@
         <v>605311</v>
       </c>
       <c r="BK6">
-        <v>485264.68</v>
+        <v>549927.53</v>
       </c>
       <c r="BL6">
-        <v>317334.44</v>
+        <v>450368.03</v>
       </c>
       <c r="BM6" t="s">
         <v>110</v>
@@ -3163,10 +3163,10 @@
         <v>605311</v>
       </c>
       <c r="BO6">
-        <v>369721.7</v>
+        <v>447949.97</v>
       </c>
       <c r="BP6">
-        <v>267823.54</v>
+        <v>368054.77</v>
       </c>
       <c r="BQ6" t="s">
         <v>426</v>
@@ -3175,10 +3175,10 @@
         <v>602228</v>
       </c>
       <c r="BS6">
-        <v>363440.22</v>
+        <v>499098.31</v>
       </c>
       <c r="BT6">
-        <v>306430.36</v>
+        <v>439541.6</v>
       </c>
       <c r="BU6" t="s">
         <v>110</v>
@@ -3187,10 +3187,10 @@
         <v>602228</v>
       </c>
       <c r="BW6">
-        <v>362917.76</v>
+        <v>466638.53</v>
       </c>
       <c r="BX6">
-        <v>236742.8</v>
+        <v>438353.24</v>
       </c>
       <c r="BY6" t="s">
         <v>110</v>
@@ -3199,10 +3199,10 @@
         <v>602228</v>
       </c>
       <c r="CA6">
-        <v>441653.23</v>
+        <v>445617.33</v>
       </c>
       <c r="CB6">
-        <v>372010.43</v>
+        <v>409873.12</v>
       </c>
       <c r="CC6" t="s">
         <v>110</v>
@@ -3211,10 +3211,10 @@
         <v>602228</v>
       </c>
       <c r="CE6">
-        <v>492245.64</v>
+        <v>453357.08</v>
       </c>
       <c r="CF6">
-        <v>371017.32</v>
+        <v>363570.32</v>
       </c>
       <c r="CG6" t="s">
         <v>110</v>
@@ -3339,10 +3339,10 @@
         <v>125000</v>
       </c>
       <c r="AQ7">
-        <v>79685.35000000001</v>
+        <v>93438.31</v>
       </c>
       <c r="AR7">
-        <v>73001.73</v>
+        <v>68789.59</v>
       </c>
       <c r="AS7" t="s">
         <v>110</v>
@@ -3351,10 +3351,10 @@
         <v>125000</v>
       </c>
       <c r="AU7">
-        <v>108625.53</v>
+        <v>102803.56</v>
       </c>
       <c r="AV7">
-        <v>96680.99000000001</v>
+        <v>91069.78999999999</v>
       </c>
       <c r="AW7" t="s">
         <v>110</v>
@@ -3363,10 +3363,10 @@
         <v>125000</v>
       </c>
       <c r="AY7">
-        <v>93549.86</v>
+        <v>116462.03</v>
       </c>
       <c r="AZ7">
-        <v>58117.38</v>
+        <v>95850.81</v>
       </c>
       <c r="BA7" t="s">
         <v>110</v>
@@ -3375,10 +3375,10 @@
         <v>125000</v>
       </c>
       <c r="BC7">
-        <v>96339.10000000001</v>
+        <v>106581.88</v>
       </c>
       <c r="BD7">
-        <v>65972.19</v>
+        <v>97489.63</v>
       </c>
       <c r="BE7" t="s">
         <v>110</v>
@@ -3387,10 +3387,10 @@
         <v>125000</v>
       </c>
       <c r="BG7">
-        <v>113222.58</v>
+        <v>110815.39</v>
       </c>
       <c r="BH7">
-        <v>93490.75999999999</v>
+        <v>100682.24</v>
       </c>
       <c r="BI7" t="s">
         <v>110</v>
@@ -3399,10 +3399,10 @@
         <v>125000</v>
       </c>
       <c r="BK7">
-        <v>102804.96</v>
+        <v>111045.46</v>
       </c>
       <c r="BL7">
-        <v>91691.35000000001</v>
+        <v>76977.21000000001</v>
       </c>
       <c r="BM7" t="s">
         <v>110</v>
@@ -3411,10 +3411,10 @@
         <v>125000</v>
       </c>
       <c r="BO7">
-        <v>93804.59</v>
+        <v>108928.11</v>
       </c>
       <c r="BP7">
-        <v>80717.66</v>
+        <v>91558.13</v>
       </c>
       <c r="BQ7" t="s">
         <v>110</v>
@@ -3423,10 +3423,10 @@
         <v>50000</v>
       </c>
       <c r="BS7">
-        <v>42523.21</v>
+        <v>43295.8</v>
       </c>
       <c r="BT7">
-        <v>34773.35</v>
+        <v>41131.01</v>
       </c>
       <c r="BU7" t="s">
         <v>110</v>
@@ -3435,10 +3435,10 @@
         <v>50000</v>
       </c>
       <c r="BW7">
-        <v>37611.77</v>
+        <v>33901</v>
       </c>
       <c r="BX7">
-        <v>24529.61</v>
+        <v>24863.67</v>
       </c>
       <c r="BY7" t="s">
         <v>110</v>
@@ -3447,10 +3447,10 @@
         <v>50000</v>
       </c>
       <c r="CA7">
-        <v>35248.98</v>
+        <v>45037.57</v>
       </c>
       <c r="CB7">
-        <v>30969.62</v>
+        <v>39509.34</v>
       </c>
       <c r="CC7" t="s">
         <v>110</v>
@@ -3459,10 +3459,10 @@
         <v>50000</v>
       </c>
       <c r="CE7">
-        <v>41510.68</v>
+        <v>39207.8</v>
       </c>
       <c r="CF7">
-        <v>37370.82</v>
+        <v>34936.16</v>
       </c>
       <c r="CG7" t="s">
         <v>110</v>
@@ -3587,10 +3587,10 @@
         <v>267116</v>
       </c>
       <c r="AQ8">
-        <v>216470</v>
+        <v>213279.69</v>
       </c>
       <c r="AR8">
-        <v>174496.3</v>
+        <v>176476.86</v>
       </c>
       <c r="AS8" t="s">
         <v>110</v>
@@ -3599,10 +3599,10 @@
         <v>267116</v>
       </c>
       <c r="AU8">
-        <v>181957.46</v>
+        <v>214881.42</v>
       </c>
       <c r="AV8">
-        <v>124435.86</v>
+        <v>142388.01</v>
       </c>
       <c r="AW8" t="s">
         <v>110</v>
@@ -3611,10 +3611,10 @@
         <v>267116</v>
       </c>
       <c r="AY8">
-        <v>250527.25</v>
+        <v>224362.78</v>
       </c>
       <c r="AZ8">
-        <v>199406.69</v>
+        <v>181792.98</v>
       </c>
       <c r="BA8" t="s">
         <v>110</v>
@@ -3623,10 +3623,10 @@
         <v>267116</v>
       </c>
       <c r="BC8">
-        <v>226622.97</v>
+        <v>227523.74</v>
       </c>
       <c r="BD8">
-        <v>202726.32</v>
+        <v>174146.59</v>
       </c>
       <c r="BE8" t="s">
         <v>110</v>
@@ -3635,10 +3635,10 @@
         <v>267116</v>
       </c>
       <c r="BG8">
-        <v>220705.24</v>
+        <v>204354.02</v>
       </c>
       <c r="BH8">
-        <v>206922.42</v>
+        <v>166171.23</v>
       </c>
       <c r="BI8" t="s">
         <v>110</v>
@@ -3647,10 +3647,10 @@
         <v>267116</v>
       </c>
       <c r="BK8">
-        <v>177800.5</v>
+        <v>188680.51</v>
       </c>
       <c r="BL8">
-        <v>126783.57</v>
+        <v>142102.83</v>
       </c>
       <c r="BM8" t="s">
         <v>110</v>
@@ -3659,10 +3659,10 @@
         <v>815825</v>
       </c>
       <c r="BO8">
-        <v>541548.79</v>
+        <v>573494.8</v>
       </c>
       <c r="BP8">
-        <v>379191.59</v>
+        <v>506606.39</v>
       </c>
       <c r="BQ8" t="s">
         <v>427</v>
@@ -3671,10 +3671,10 @@
         <v>815481</v>
       </c>
       <c r="BS8">
-        <v>563174.83</v>
+        <v>660540.1800000001</v>
       </c>
       <c r="BT8">
-        <v>520719.31</v>
+        <v>510859.23</v>
       </c>
       <c r="BU8" t="s">
         <v>110</v>
@@ -3683,10 +3683,10 @@
         <v>815481</v>
       </c>
       <c r="BW8">
-        <v>763236.71</v>
+        <v>672022.66</v>
       </c>
       <c r="BX8">
-        <v>636948.8</v>
+        <v>538345.51</v>
       </c>
       <c r="BY8" t="s">
         <v>110</v>
@@ -3695,10 +3695,10 @@
         <v>815481</v>
       </c>
       <c r="CA8">
-        <v>519327</v>
+        <v>702225.11</v>
       </c>
       <c r="CB8">
-        <v>425201.56</v>
+        <v>503242.52</v>
       </c>
       <c r="CC8" t="s">
         <v>110</v>
@@ -3707,10 +3707,10 @@
         <v>815481</v>
       </c>
       <c r="CE8">
-        <v>705631.96</v>
+        <v>684594.92</v>
       </c>
       <c r="CF8">
-        <v>540303.78</v>
+        <v>503870.35</v>
       </c>
       <c r="CG8" t="s">
         <v>110</v>
@@ -3835,10 +3835,10 @@
         <v>120301</v>
       </c>
       <c r="AQ9">
-        <v>107457.37</v>
+        <v>85037.35000000001</v>
       </c>
       <c r="AR9">
-        <v>89580.39999999999</v>
+        <v>72007.17999999999</v>
       </c>
       <c r="AS9" t="s">
         <v>110</v>
@@ -3847,10 +3847,10 @@
         <v>120301</v>
       </c>
       <c r="AU9">
-        <v>90284.12</v>
+        <v>79468.45</v>
       </c>
       <c r="AV9">
-        <v>79812.45</v>
+        <v>66339.39999999999</v>
       </c>
       <c r="AW9" t="s">
         <v>110</v>
@@ -3859,10 +3859,10 @@
         <v>120301</v>
       </c>
       <c r="AY9">
-        <v>106424.33</v>
+        <v>104195.2</v>
       </c>
       <c r="AZ9">
-        <v>92629.02</v>
+        <v>81920.52</v>
       </c>
       <c r="BA9" t="s">
         <v>110</v>
@@ -3871,10 +3871,10 @@
         <v>120301</v>
       </c>
       <c r="BC9">
-        <v>91975.98</v>
+        <v>88416.7</v>
       </c>
       <c r="BD9">
-        <v>78170.03999999999</v>
+        <v>71803.57000000001</v>
       </c>
       <c r="BE9" t="s">
         <v>110</v>
@@ -3883,10 +3883,10 @@
         <v>120301</v>
       </c>
       <c r="BG9">
-        <v>104591.85</v>
+        <v>95642.42999999999</v>
       </c>
       <c r="BH9">
-        <v>77304.42999999999</v>
+        <v>67965.92</v>
       </c>
       <c r="BI9" t="s">
         <v>415</v>
@@ -3895,10 +3895,10 @@
         <v>53649</v>
       </c>
       <c r="BK9">
-        <v>40619.11</v>
+        <v>43259.45</v>
       </c>
       <c r="BL9">
-        <v>36385.71</v>
+        <v>38886.54</v>
       </c>
       <c r="BM9" t="s">
         <v>110</v>
@@ -3907,10 +3907,10 @@
         <v>46596</v>
       </c>
       <c r="BO9">
-        <v>39763.07</v>
+        <v>38045.88</v>
       </c>
       <c r="BP9">
-        <v>24927.28</v>
+        <v>30792.46</v>
       </c>
       <c r="BQ9" t="s">
         <v>110</v>
@@ -3919,10 +3919,10 @@
         <v>46596</v>
       </c>
       <c r="BS9">
-        <v>42238.64</v>
+        <v>36027.28</v>
       </c>
       <c r="BT9">
-        <v>32964.69</v>
+        <v>32062.18</v>
       </c>
       <c r="BU9" t="s">
         <v>110</v>
@@ -3931,10 +3931,10 @@
         <v>46596</v>
       </c>
       <c r="BW9">
-        <v>35015.46</v>
+        <v>35921.69</v>
       </c>
       <c r="BX9">
-        <v>22385.01</v>
+        <v>29909.86</v>
       </c>
       <c r="BY9" t="s">
         <v>110</v>
@@ -3943,10 +3943,10 @@
         <v>46596</v>
       </c>
       <c r="CA9">
-        <v>41128.34</v>
+        <v>38570.25</v>
       </c>
       <c r="CB9">
-        <v>34181.25</v>
+        <v>26482.88</v>
       </c>
       <c r="CC9" t="s">
         <v>110</v>
@@ -3955,10 +3955,10 @@
         <v>46596</v>
       </c>
       <c r="CE9">
-        <v>32235.09</v>
+        <v>42635.94</v>
       </c>
       <c r="CF9">
-        <v>24732.15</v>
+        <v>29894.91</v>
       </c>
       <c r="CG9" t="s">
         <v>110</v>
@@ -4083,10 +4083,10 @@
         <v>110136</v>
       </c>
       <c r="AQ10">
-        <v>77809.28999999999</v>
+        <v>79800.66</v>
       </c>
       <c r="AR10">
-        <v>56204.01</v>
+        <v>64912.92</v>
       </c>
       <c r="AS10" t="s">
         <v>110</v>
@@ -4095,10 +4095,10 @@
         <v>110136</v>
       </c>
       <c r="AU10">
-        <v>69060.10000000001</v>
+        <v>86195.41</v>
       </c>
       <c r="AV10">
-        <v>60983.45</v>
+        <v>66719.57000000001</v>
       </c>
       <c r="AW10" t="s">
         <v>110</v>
@@ -4107,10 +4107,10 @@
         <v>110136</v>
       </c>
       <c r="AY10">
-        <v>91554.82000000001</v>
+        <v>90553.57000000001</v>
       </c>
       <c r="AZ10">
-        <v>83913.96000000001</v>
+        <v>62943.49</v>
       </c>
       <c r="BA10" t="s">
         <v>110</v>
@@ -4119,10 +4119,10 @@
         <v>110136</v>
       </c>
       <c r="BC10">
-        <v>73081.17</v>
+        <v>100065.34</v>
       </c>
       <c r="BD10">
-        <v>67831.33</v>
+        <v>89566.03</v>
       </c>
       <c r="BE10" t="s">
         <v>110</v>
@@ -4131,10 +4131,10 @@
         <v>110136</v>
       </c>
       <c r="BG10">
-        <v>82882.23</v>
+        <v>86283.13</v>
       </c>
       <c r="BH10">
-        <v>53926.7</v>
+        <v>53414.39</v>
       </c>
       <c r="BI10" t="s">
         <v>415</v>
@@ -4143,10 +4143,10 @@
         <v>33766</v>
       </c>
       <c r="BK10">
-        <v>28903</v>
+        <v>25854.28</v>
       </c>
       <c r="BL10">
-        <v>20547.28</v>
+        <v>21912.83</v>
       </c>
       <c r="BM10" t="s">
         <v>110</v>
@@ -4155,10 +4155,10 @@
         <v>77016</v>
       </c>
       <c r="BO10">
-        <v>51631.03</v>
+        <v>63995.58</v>
       </c>
       <c r="BP10">
-        <v>44592.6</v>
+        <v>50184.14</v>
       </c>
       <c r="BQ10" t="s">
         <v>110</v>
@@ -4167,10 +4167,10 @@
         <v>77016</v>
       </c>
       <c r="BS10">
-        <v>72872.46000000001</v>
+        <v>48960.58</v>
       </c>
       <c r="BT10">
-        <v>51339.88</v>
+        <v>40843.23</v>
       </c>
       <c r="BU10" t="s">
         <v>110</v>
@@ -4179,10 +4179,10 @@
         <v>77016</v>
       </c>
       <c r="BW10">
-        <v>56592.53</v>
+        <v>61073.39</v>
       </c>
       <c r="BX10">
-        <v>46842.24</v>
+        <v>52758.82</v>
       </c>
       <c r="BY10" t="s">
         <v>110</v>
@@ -4191,10 +4191,10 @@
         <v>77016</v>
       </c>
       <c r="CA10">
-        <v>64973.82</v>
+        <v>65234.49</v>
       </c>
       <c r="CB10">
-        <v>50945.72</v>
+        <v>48518.29</v>
       </c>
       <c r="CC10" t="s">
         <v>110</v>
@@ -4203,10 +4203,10 @@
         <v>77016</v>
       </c>
       <c r="CE10">
-        <v>71708.81</v>
+        <v>65836.17</v>
       </c>
       <c r="CF10">
-        <v>63605.38</v>
+        <v>47601.02</v>
       </c>
       <c r="CG10" t="s">
         <v>110</v>
@@ -4331,10 +4331,10 @@
         <v>501012</v>
       </c>
       <c r="AQ11">
-        <v>330952.98</v>
+        <v>452203.21</v>
       </c>
       <c r="AR11">
-        <v>252325.88</v>
+        <v>318483.86</v>
       </c>
       <c r="AS11" t="s">
         <v>110</v>
@@ -4343,10 +4343,10 @@
         <v>501012</v>
       </c>
       <c r="AU11">
-        <v>462410.55</v>
+        <v>382272.4</v>
       </c>
       <c r="AV11">
-        <v>368322.24</v>
+        <v>334665.39</v>
       </c>
       <c r="AW11" t="s">
         <v>110</v>
@@ -4355,10 +4355,10 @@
         <v>501012</v>
       </c>
       <c r="AY11">
-        <v>458843.97</v>
+        <v>409080.01</v>
       </c>
       <c r="AZ11">
-        <v>295825.95</v>
+        <v>348621.06</v>
       </c>
       <c r="BA11" t="s">
         <v>110</v>
@@ -4367,10 +4367,10 @@
         <v>501012</v>
       </c>
       <c r="BC11">
-        <v>317520.03</v>
+        <v>394107.57</v>
       </c>
       <c r="BD11">
-        <v>215177.85</v>
+        <v>340692.54</v>
       </c>
       <c r="BE11" t="s">
         <v>110</v>
@@ -4379,10 +4379,10 @@
         <v>501012</v>
       </c>
       <c r="BG11">
-        <v>353923.62</v>
+        <v>332063.48</v>
       </c>
       <c r="BH11">
-        <v>267527.79</v>
+        <v>272418.53</v>
       </c>
       <c r="BI11" t="s">
         <v>110</v>
@@ -4391,10 +4391,10 @@
         <v>501012</v>
       </c>
       <c r="BK11">
-        <v>343224.15</v>
+        <v>407043.48</v>
       </c>
       <c r="BL11">
-        <v>289508.42</v>
+        <v>320657.43</v>
       </c>
       <c r="BM11" t="s">
         <v>110</v>
@@ -4403,10 +4403,10 @@
         <v>501012</v>
       </c>
       <c r="BO11">
-        <v>454134.83</v>
+        <v>381532.92</v>
       </c>
       <c r="BP11">
-        <v>388326.07</v>
+        <v>325848.88</v>
       </c>
       <c r="BQ11" t="s">
         <v>110</v>
@@ -4415,10 +4415,10 @@
         <v>359134</v>
       </c>
       <c r="BS11">
-        <v>277214.46</v>
+        <v>278922.82</v>
       </c>
       <c r="BT11">
-        <v>256360.34</v>
+        <v>206520.22</v>
       </c>
       <c r="BU11" t="s">
         <v>110</v>
@@ -4427,10 +4427,10 @@
         <v>493857</v>
       </c>
       <c r="BW11">
-        <v>463773.69</v>
+        <v>414238.49</v>
       </c>
       <c r="BX11">
-        <v>354991.2</v>
+        <v>313371.51</v>
       </c>
       <c r="BY11" t="s">
         <v>110</v>
@@ -4439,10 +4439,10 @@
         <v>493857</v>
       </c>
       <c r="CA11">
-        <v>392942.85</v>
+        <v>337018.36</v>
       </c>
       <c r="CB11">
-        <v>244828.03</v>
+        <v>270497.35</v>
       </c>
       <c r="CC11" t="s">
         <v>110</v>
@@ -4451,10 +4451,10 @@
         <v>493857</v>
       </c>
       <c r="CE11">
-        <v>300988.01</v>
+        <v>403186.51</v>
       </c>
       <c r="CF11">
-        <v>263074.7</v>
+        <v>293447.92</v>
       </c>
       <c r="CG11" t="s">
         <v>110</v>
@@ -4579,10 +4579,10 @@
         <v>766484</v>
       </c>
       <c r="AQ12">
-        <v>489441.55</v>
+        <v>553712.79</v>
       </c>
       <c r="AR12">
-        <v>405533.05</v>
+        <v>485212.98</v>
       </c>
       <c r="AS12" t="s">
         <v>110</v>
@@ -4591,10 +4591,10 @@
         <v>766484</v>
       </c>
       <c r="AU12">
-        <v>476091.59</v>
+        <v>585135.73</v>
       </c>
       <c r="AV12">
-        <v>330571.08</v>
+        <v>527096.74</v>
       </c>
       <c r="AW12" t="s">
         <v>110</v>
@@ -4603,10 +4603,10 @@
         <v>766484</v>
       </c>
       <c r="AY12">
-        <v>701850.16</v>
+        <v>572002.74</v>
       </c>
       <c r="AZ12">
-        <v>549802.65</v>
+        <v>395080.7</v>
       </c>
       <c r="BA12" t="s">
         <v>110</v>
@@ -4615,10 +4615,10 @@
         <v>766484</v>
       </c>
       <c r="BC12">
-        <v>537248.5</v>
+        <v>681502.71</v>
       </c>
       <c r="BD12">
-        <v>351072.31</v>
+        <v>585396.8</v>
       </c>
       <c r="BE12" t="s">
         <v>110</v>
@@ -4627,10 +4627,10 @@
         <v>766484</v>
       </c>
       <c r="BG12">
-        <v>529931.63</v>
+        <v>589026.5</v>
       </c>
       <c r="BH12">
-        <v>487831.47</v>
+        <v>354317.97</v>
       </c>
       <c r="BI12" t="s">
         <v>415</v>
@@ -4639,10 +4639,10 @@
         <v>2088050</v>
       </c>
       <c r="BK12">
-        <v>1603540.16</v>
+        <v>1466805.92</v>
       </c>
       <c r="BL12">
-        <v>1295249.91</v>
+        <v>1280186.07</v>
       </c>
       <c r="BM12" t="s">
         <v>110</v>
@@ -4651,10 +4651,10 @@
         <v>1943</v>
       </c>
       <c r="BO12">
-        <v>1524.28</v>
+        <v>1554.75</v>
       </c>
       <c r="BP12">
-        <v>967.42</v>
+        <v>1174.95</v>
       </c>
       <c r="BQ12" t="s">
         <v>110</v>
@@ -4663,10 +4663,10 @@
         <v>1943</v>
       </c>
       <c r="BS12">
-        <v>1480.07</v>
+        <v>1327.45</v>
       </c>
       <c r="BT12">
-        <v>1132.04</v>
+        <v>1111.62</v>
       </c>
       <c r="BU12" t="s">
         <v>110</v>
@@ -4675,10 +4675,10 @@
         <v>1943</v>
       </c>
       <c r="BW12">
-        <v>1636.67</v>
+        <v>1647.52</v>
       </c>
       <c r="BX12">
-        <v>1093.91</v>
+        <v>1372.2</v>
       </c>
       <c r="BY12" t="s">
         <v>110</v>
@@ -4687,10 +4687,10 @@
         <v>1943</v>
       </c>
       <c r="CA12">
-        <v>1336.36</v>
+        <v>1401.48</v>
       </c>
       <c r="CB12">
-        <v>1139.48</v>
+        <v>953.26</v>
       </c>
       <c r="CC12" t="s">
         <v>110</v>
@@ -4699,10 +4699,10 @@
         <v>1943</v>
       </c>
       <c r="CE12">
-        <v>1281.79</v>
+        <v>1600.99</v>
       </c>
       <c r="CF12">
-        <v>1025.29</v>
+        <v>1188.24</v>
       </c>
       <c r="CG12" t="s">
         <v>110</v>
@@ -4982,10 +4982,10 @@
         <v>400000</v>
       </c>
       <c r="AQ14">
-        <v>263692.04</v>
+        <v>326628.85</v>
       </c>
       <c r="AR14">
-        <v>237949.4</v>
+        <v>277722.4</v>
       </c>
       <c r="AS14" t="s">
         <v>110</v>
@@ -4994,10 +4994,10 @@
         <v>400000</v>
       </c>
       <c r="AU14">
-        <v>255594.11</v>
+        <v>332108.66</v>
       </c>
       <c r="AV14">
-        <v>176551.44</v>
+        <v>244324.7</v>
       </c>
       <c r="AW14" t="s">
         <v>110</v>
@@ -5006,10 +5006,10 @@
         <v>400000</v>
       </c>
       <c r="AY14">
-        <v>277529.76</v>
+        <v>380000</v>
       </c>
       <c r="AZ14">
-        <v>225624.8</v>
+        <v>338106.05</v>
       </c>
       <c r="BA14" t="s">
         <v>110</v>
@@ -5018,10 +5018,10 @@
         <v>400000</v>
       </c>
       <c r="BC14">
-        <v>296935.25</v>
+        <v>331087.47</v>
       </c>
       <c r="BD14">
-        <v>225732.44</v>
+        <v>256970.77</v>
       </c>
       <c r="BE14" t="s">
         <v>110</v>
@@ -5030,10 +5030,10 @@
         <v>400000</v>
       </c>
       <c r="BG14">
-        <v>241652.37</v>
+        <v>269356.67</v>
       </c>
       <c r="BH14">
-        <v>194640.77</v>
+        <v>218304.26</v>
       </c>
       <c r="BI14" t="s">
         <v>110</v>
@@ -5042,10 +5042,10 @@
         <v>400000</v>
       </c>
       <c r="BK14">
-        <v>330817.64</v>
+        <v>275687.76</v>
       </c>
       <c r="BL14">
-        <v>263178.78</v>
+        <v>232747.24</v>
       </c>
       <c r="BM14" t="s">
         <v>110</v>
@@ -5054,10 +5054,10 @@
         <v>400000</v>
       </c>
       <c r="BO14">
-        <v>355811.6</v>
+        <v>319494.16</v>
       </c>
       <c r="BP14">
-        <v>228934.04</v>
+        <v>290166.99</v>
       </c>
       <c r="BQ14" t="s">
         <v>110</v>
@@ -5066,10 +5066,10 @@
         <v>400000</v>
       </c>
       <c r="BS14">
-        <v>251114.96</v>
+        <v>339889.03</v>
       </c>
       <c r="BT14">
-        <v>169244.26</v>
+        <v>263627.66</v>
       </c>
       <c r="BU14" t="s">
         <v>110</v>
@@ -5078,10 +5078,10 @@
         <v>1230000</v>
       </c>
       <c r="BW14">
-        <v>1006474.17</v>
+        <v>897855.8</v>
       </c>
       <c r="BX14">
-        <v>688095.41</v>
+        <v>782941.51</v>
       </c>
       <c r="BY14" t="s">
         <v>110</v>
@@ -5090,10 +5090,10 @@
         <v>1230000</v>
       </c>
       <c r="CA14">
-        <v>1145003.92</v>
+        <v>827478.36</v>
       </c>
       <c r="CB14">
-        <v>904121.8100000001</v>
+        <v>550892.78</v>
       </c>
       <c r="CC14" t="s">
         <v>110</v>
@@ -5102,10 +5102,10 @@
         <v>1230000</v>
       </c>
       <c r="CE14">
-        <v>1085205.8</v>
+        <v>1033221.15</v>
       </c>
       <c r="CF14">
-        <v>864313.1899999999</v>
+        <v>688236.7</v>
       </c>
       <c r="CG14" t="s">
         <v>110</v>
@@ -5230,10 +5230,10 @@
         <v>2000000</v>
       </c>
       <c r="AQ15">
-        <v>1690323.81</v>
+        <v>1830106.13</v>
       </c>
       <c r="AR15">
-        <v>1541624.23</v>
+        <v>1471272.72</v>
       </c>
       <c r="AS15" t="s">
         <v>110</v>
@@ -5242,10 +5242,10 @@
         <v>2000000</v>
       </c>
       <c r="AU15">
-        <v>1768247.41</v>
+        <v>1646880.93</v>
       </c>
       <c r="AV15">
-        <v>1095400.49</v>
+        <v>1325753.75</v>
       </c>
       <c r="AW15" t="s">
         <v>110</v>
@@ -5254,10 +5254,10 @@
         <v>2000000</v>
       </c>
       <c r="AY15">
-        <v>1396632.52</v>
+        <v>1763387.31</v>
       </c>
       <c r="AZ15">
-        <v>1072128.8</v>
+        <v>1350298.55</v>
       </c>
       <c r="BA15" t="s">
         <v>110</v>
@@ -5266,10 +5266,10 @@
         <v>2000000</v>
       </c>
       <c r="BC15">
-        <v>1563012.48</v>
+        <v>1809417.97</v>
       </c>
       <c r="BD15">
-        <v>960127.0600000001</v>
+        <v>1255174.5</v>
       </c>
       <c r="BE15" t="s">
         <v>110</v>
@@ -5278,10 +5278,10 @@
         <v>2000000</v>
       </c>
       <c r="BG15">
-        <v>1740125.69</v>
+        <v>1620924.84</v>
       </c>
       <c r="BH15">
-        <v>1489962</v>
+        <v>1412712.95</v>
       </c>
       <c r="BI15" t="s">
         <v>110</v>
@@ -5290,10 +5290,10 @@
         <v>2000000</v>
       </c>
       <c r="BK15">
-        <v>1629150.42</v>
+        <v>1560525.88</v>
       </c>
       <c r="BL15">
-        <v>1483546.9</v>
+        <v>1111107.34</v>
       </c>
       <c r="BM15" t="s">
         <v>110</v>
@@ -5302,10 +5302,10 @@
         <v>2000000</v>
       </c>
       <c r="BO15">
-        <v>1469554.92</v>
+        <v>1656515.11</v>
       </c>
       <c r="BP15">
-        <v>907707</v>
+        <v>1427554.23</v>
       </c>
       <c r="BQ15" t="s">
         <v>110</v>
@@ -5314,10 +5314,10 @@
         <v>1590703</v>
       </c>
       <c r="BS15">
-        <v>1042312.64</v>
+        <v>1437099.03</v>
       </c>
       <c r="BT15">
-        <v>831601.9</v>
+        <v>1068921.06</v>
       </c>
       <c r="BU15" t="s">
         <v>110</v>
@@ -5326,10 +5326,10 @@
         <v>1590703</v>
       </c>
       <c r="BW15">
-        <v>1064732.15</v>
+        <v>1377307.64</v>
       </c>
       <c r="BX15">
-        <v>828603.52</v>
+        <v>1172842.9</v>
       </c>
       <c r="BY15" t="s">
         <v>110</v>
@@ -5338,10 +5338,10 @@
         <v>1590703</v>
       </c>
       <c r="CA15">
-        <v>1358391.91</v>
+        <v>1260777.86</v>
       </c>
       <c r="CB15">
-        <v>1140034.42</v>
+        <v>964366.9</v>
       </c>
       <c r="CC15" t="s">
         <v>110</v>
@@ -5350,10 +5350,10 @@
         <v>1590703</v>
       </c>
       <c r="CE15">
-        <v>1179269.66</v>
+        <v>1411513.55</v>
       </c>
       <c r="CF15">
-        <v>840163.21</v>
+        <v>1076552.01</v>
       </c>
       <c r="CG15" t="s">
         <v>110</v>
@@ -5478,10 +5478,10 @@
         <v>710076</v>
       </c>
       <c r="AQ16">
-        <v>447675.12</v>
+        <v>610019.37</v>
       </c>
       <c r="AR16">
-        <v>393720.54</v>
+        <v>546870.62</v>
       </c>
       <c r="AS16" t="s">
         <v>110</v>
@@ -5490,10 +5490,10 @@
         <v>710076</v>
       </c>
       <c r="AU16">
-        <v>496583.32</v>
+        <v>579750.28</v>
       </c>
       <c r="AV16">
-        <v>387798.19</v>
+        <v>424710.45</v>
       </c>
       <c r="AW16" t="s">
         <v>110</v>
@@ -5502,10 +5502,10 @@
         <v>710076</v>
       </c>
       <c r="AY16">
-        <v>628952.12</v>
+        <v>603063.98</v>
       </c>
       <c r="AZ16">
-        <v>384459.12</v>
+        <v>514139.86</v>
       </c>
       <c r="BA16" t="s">
         <v>110</v>
@@ -5514,10 +5514,10 @@
         <v>710076</v>
       </c>
       <c r="BC16">
-        <v>480499.29</v>
+        <v>668555.22</v>
       </c>
       <c r="BD16">
-        <v>424144.96</v>
+        <v>522802.76</v>
       </c>
       <c r="BE16" t="s">
         <v>110</v>
@@ -5526,10 +5526,10 @@
         <v>710076</v>
       </c>
       <c r="BG16">
-        <v>586030.36</v>
+        <v>523607.06</v>
       </c>
       <c r="BH16">
-        <v>435782.39</v>
+        <v>418037.5</v>
       </c>
       <c r="BI16" t="s">
         <v>110</v>
@@ -5538,10 +5538,10 @@
         <v>1663578</v>
       </c>
       <c r="BK16">
-        <v>1503657.62</v>
+        <v>1379903.4</v>
       </c>
       <c r="BL16">
-        <v>980628.35</v>
+        <v>998782.16</v>
       </c>
       <c r="BM16" t="s">
         <v>110</v>
@@ -5550,10 +5550,10 @@
         <v>1362078</v>
       </c>
       <c r="BO16">
-        <v>1155568.29</v>
+        <v>1095186.34</v>
       </c>
       <c r="BP16">
-        <v>896978.96</v>
+        <v>948495.85</v>
       </c>
       <c r="BQ16" t="s">
         <v>110</v>
@@ -5562,10 +5562,10 @@
         <v>26200</v>
       </c>
       <c r="BS16">
-        <v>18640.57</v>
+        <v>24890</v>
       </c>
       <c r="BT16">
-        <v>11686.9</v>
+        <v>16402.49</v>
       </c>
       <c r="BU16" t="s">
         <v>110</v>
@@ -5574,10 +5574,10 @@
         <v>26200</v>
       </c>
       <c r="BW16">
-        <v>17660.96</v>
+        <v>22666.9</v>
       </c>
       <c r="BX16">
-        <v>15055.34</v>
+        <v>18609</v>
       </c>
       <c r="BY16" t="s">
         <v>110</v>
@@ -5586,10 +5586,10 @@
         <v>26200</v>
       </c>
       <c r="CA16">
-        <v>24884.35</v>
+        <v>18059.72</v>
       </c>
       <c r="CB16">
-        <v>21854.72</v>
+        <v>13532.06</v>
       </c>
       <c r="CC16" t="s">
         <v>110</v>
@@ -5598,10 +5598,10 @@
         <v>26200</v>
       </c>
       <c r="CE16">
-        <v>18517.77</v>
+        <v>24787.62</v>
       </c>
       <c r="CF16">
-        <v>16538.21</v>
+        <v>16274.08</v>
       </c>
       <c r="CG16" t="s">
         <v>110</v>
@@ -5732,10 +5732,10 @@
         <v>100000</v>
       </c>
       <c r="AQ17">
-        <v>90828.17</v>
+        <v>88934.64</v>
       </c>
       <c r="AR17">
-        <v>55913.77</v>
+        <v>71259.75</v>
       </c>
       <c r="AS17" t="s">
         <v>110</v>
@@ -5744,10 +5744,10 @@
         <v>100000</v>
       </c>
       <c r="AU17">
-        <v>90591.42999999999</v>
+        <v>72956.98</v>
       </c>
       <c r="AV17">
-        <v>62281.04</v>
+        <v>56392.54</v>
       </c>
       <c r="AW17" t="s">
         <v>110</v>
@@ -5756,10 +5756,10 @@
         <v>100000</v>
       </c>
       <c r="AY17">
-        <v>66408.11</v>
+        <v>71841.05</v>
       </c>
       <c r="AZ17">
-        <v>62078.56</v>
+        <v>59721.5</v>
       </c>
       <c r="BA17" t="s">
         <v>110</v>
@@ -5768,10 +5768,10 @@
         <v>100000</v>
       </c>
       <c r="BC17">
-        <v>88371.16</v>
+        <v>70343.81</v>
       </c>
       <c r="BD17">
-        <v>63229.77</v>
+        <v>62116.98</v>
       </c>
       <c r="BE17" t="s">
         <v>110</v>
@@ -5780,10 +5780,10 @@
         <v>100000</v>
       </c>
       <c r="BG17">
-        <v>92146.7</v>
+        <v>86192.86</v>
       </c>
       <c r="BH17">
-        <v>65896.98</v>
+        <v>73907.83</v>
       </c>
       <c r="BI17" t="s">
         <v>416</v>
@@ -5792,10 +5792,10 @@
         <v>100000</v>
       </c>
       <c r="BK17">
-        <v>80527.39</v>
+        <v>76854.53</v>
       </c>
       <c r="BL17">
-        <v>60697.98</v>
+        <v>50571.95</v>
       </c>
       <c r="BM17" t="s">
         <v>110</v>
@@ -5804,10 +5804,10 @@
         <v>100000</v>
       </c>
       <c r="BO17">
-        <v>91766.27</v>
+        <v>75672.23</v>
       </c>
       <c r="BP17">
-        <v>59515.92</v>
+        <v>61008.13</v>
       </c>
       <c r="BQ17" t="s">
         <v>110</v>
@@ -5816,10 +5816,10 @@
         <v>100000</v>
       </c>
       <c r="BS17">
-        <v>77849.03</v>
+        <v>76752.3</v>
       </c>
       <c r="BT17">
-        <v>64943.69</v>
+        <v>63931.29</v>
       </c>
       <c r="BU17" t="s">
         <v>110</v>
@@ -5828,10 +5828,10 @@
         <v>100000</v>
       </c>
       <c r="BW17">
-        <v>92806.78</v>
+        <v>88613.82000000001</v>
       </c>
       <c r="BX17">
-        <v>68469.2</v>
+        <v>63338.05</v>
       </c>
       <c r="BY17" t="s">
         <v>110</v>
@@ -5840,10 +5840,10 @@
         <v>100000</v>
       </c>
       <c r="CA17">
-        <v>81967.66</v>
+        <v>87939.99000000001</v>
       </c>
       <c r="CB17">
-        <v>52484.36</v>
+        <v>83275.92999999999</v>
       </c>
       <c r="CC17" t="s">
         <v>110</v>
@@ -5852,10 +5852,10 @@
         <v>100000</v>
       </c>
       <c r="CE17">
-        <v>88876.78</v>
+        <v>83610.8</v>
       </c>
       <c r="CF17">
-        <v>78938.74000000001</v>
+        <v>65591.32000000001</v>
       </c>
       <c r="CG17" t="s">
         <v>110</v>
@@ -5980,10 +5980,10 @@
         <v>87408</v>
       </c>
       <c r="AQ18">
-        <v>83009.33</v>
+        <v>73812.12</v>
       </c>
       <c r="AR18">
-        <v>58540.3</v>
+        <v>58129.72</v>
       </c>
       <c r="AS18" t="s">
         <v>110</v>
@@ -5992,10 +5992,10 @@
         <v>87408</v>
       </c>
       <c r="AU18">
-        <v>76256.00999999999</v>
+        <v>60872.84</v>
       </c>
       <c r="AV18">
-        <v>61328.83</v>
+        <v>45344.1</v>
       </c>
       <c r="AW18" t="s">
         <v>110</v>
@@ -6004,10 +6004,10 @@
         <v>87408</v>
       </c>
       <c r="AY18">
-        <v>66061.61</v>
+        <v>72672.38</v>
       </c>
       <c r="AZ18">
-        <v>46650.3</v>
+        <v>63822.88</v>
       </c>
       <c r="BA18" t="s">
         <v>110</v>
@@ -6016,10 +6016,10 @@
         <v>87408</v>
       </c>
       <c r="BC18">
-        <v>66553.42</v>
+        <v>60659.6</v>
       </c>
       <c r="BD18">
-        <v>44205.35</v>
+        <v>45429.09</v>
       </c>
       <c r="BE18" t="s">
         <v>110</v>
@@ -6028,10 +6028,10 @@
         <v>87408</v>
       </c>
       <c r="BG18">
-        <v>75393.5</v>
+        <v>74268.39999999999</v>
       </c>
       <c r="BH18">
-        <v>69688.31</v>
+        <v>63170.6</v>
       </c>
       <c r="BI18" t="s">
         <v>417</v>
@@ -6040,10 +6040,10 @@
         <v>85740</v>
       </c>
       <c r="BK18">
-        <v>60012.17</v>
+        <v>67504.77</v>
       </c>
       <c r="BL18">
-        <v>49264.09</v>
+        <v>61494.43</v>
       </c>
       <c r="BM18" t="s">
         <v>110</v>
@@ -6052,10 +6052,10 @@
         <v>85740</v>
       </c>
       <c r="BO18">
-        <v>76026.35000000001</v>
+        <v>62464.29</v>
       </c>
       <c r="BP18">
-        <v>59204.31</v>
+        <v>46462.59</v>
       </c>
       <c r="BQ18" t="s">
         <v>110</v>
@@ -6064,10 +6064,10 @@
         <v>85740</v>
       </c>
       <c r="BS18">
-        <v>73546.42999999999</v>
+        <v>57472.94</v>
       </c>
       <c r="BT18">
-        <v>65686.62</v>
+        <v>53451.94</v>
       </c>
       <c r="BU18" t="s">
         <v>110</v>
@@ -6076,10 +6076,10 @@
         <v>85740</v>
       </c>
       <c r="BW18">
-        <v>61120.74</v>
+        <v>66590.11</v>
       </c>
       <c r="BX18">
-        <v>40435.02</v>
+        <v>58096.88</v>
       </c>
       <c r="BY18" t="s">
         <v>110</v>
@@ -6088,10 +6088,10 @@
         <v>85740</v>
       </c>
       <c r="CA18">
-        <v>62327.12</v>
+        <v>63785.14</v>
       </c>
       <c r="CB18">
-        <v>42865.14</v>
+        <v>46399.17</v>
       </c>
       <c r="CC18" t="s">
         <v>110</v>
@@ -6100,10 +6100,10 @@
         <v>85740</v>
       </c>
       <c r="CE18">
-        <v>59928.41</v>
+        <v>64100.7</v>
       </c>
       <c r="CF18">
-        <v>52714.3</v>
+        <v>48508.28</v>
       </c>
       <c r="CG18" t="s">
         <v>110</v>
@@ -6234,10 +6234,10 @@
         <v>18000</v>
       </c>
       <c r="AQ19">
-        <v>12133.84</v>
+        <v>15083.44</v>
       </c>
       <c r="AR19">
-        <v>9042.34</v>
+        <v>11880.75</v>
       </c>
       <c r="AS19" t="s">
         <v>110</v>
@@ -6246,10 +6246,10 @@
         <v>18000</v>
       </c>
       <c r="AU19">
-        <v>15061.13</v>
+        <v>14831.88</v>
       </c>
       <c r="AV19">
-        <v>13579.4</v>
+        <v>11253.8</v>
       </c>
       <c r="AW19" t="s">
         <v>110</v>
@@ -6258,10 +6258,10 @@
         <v>18000</v>
       </c>
       <c r="AY19">
-        <v>16616.66</v>
+        <v>12581.98</v>
       </c>
       <c r="AZ19">
-        <v>15269.46</v>
+        <v>11651.12</v>
       </c>
       <c r="BA19" t="s">
         <v>110</v>
@@ -6270,10 +6270,10 @@
         <v>18000</v>
       </c>
       <c r="BC19">
-        <v>15979.48</v>
+        <v>15813.02</v>
       </c>
       <c r="BD19">
-        <v>14938.25</v>
+        <v>14187.48</v>
       </c>
       <c r="BE19" t="s">
         <v>110</v>
@@ -6282,10 +6282,10 @@
         <v>18000</v>
       </c>
       <c r="BG19">
-        <v>11608.82</v>
+        <v>17076.96</v>
       </c>
       <c r="BH19">
-        <v>10813.36</v>
+        <v>13530.43</v>
       </c>
       <c r="BI19" t="s">
         <v>110</v>
@@ -6294,10 +6294,10 @@
         <v>18000</v>
       </c>
       <c r="BK19">
-        <v>14018.57</v>
+        <v>14111.56</v>
       </c>
       <c r="BL19">
-        <v>12213.21</v>
+        <v>13334.13</v>
       </c>
       <c r="BM19" t="s">
         <v>110</v>
@@ -6306,10 +6306,10 @@
         <v>18000</v>
       </c>
       <c r="BO19">
-        <v>13106.38</v>
+        <v>17100</v>
       </c>
       <c r="BP19">
-        <v>10816.02</v>
+        <v>12080.24</v>
       </c>
       <c r="BQ19" t="s">
         <v>110</v>
@@ -6318,10 +6318,10 @@
         <v>18000</v>
       </c>
       <c r="BS19">
-        <v>13836.33</v>
+        <v>14617.44</v>
       </c>
       <c r="BT19">
-        <v>10193.42</v>
+        <v>10505.17</v>
       </c>
       <c r="BU19" t="s">
         <v>110</v>
@@ -6330,10 +6330,10 @@
         <v>18000</v>
       </c>
       <c r="BW19">
-        <v>13259.5</v>
+        <v>13254.41</v>
       </c>
       <c r="BX19">
-        <v>10552.86</v>
+        <v>11084.04</v>
       </c>
       <c r="BY19" t="s">
         <v>110</v>
@@ -6342,10 +6342,10 @@
         <v>18000</v>
       </c>
       <c r="CA19">
-        <v>16178.16</v>
+        <v>12467.92</v>
       </c>
       <c r="CB19">
-        <v>12233.29</v>
+        <v>10770.32</v>
       </c>
       <c r="CC19" t="s">
         <v>110</v>
@@ -6354,10 +6354,10 @@
         <v>18000</v>
       </c>
       <c r="CE19">
-        <v>11030.8</v>
+        <v>12279.63</v>
       </c>
       <c r="CF19">
-        <v>7415.56</v>
+        <v>9439.83</v>
       </c>
       <c r="CG19" t="s">
         <v>110</v>
@@ -6482,10 +6482,10 @@
         <v>362000</v>
       </c>
       <c r="AQ20">
-        <v>218294.1</v>
+        <v>251487.63</v>
       </c>
       <c r="AR20">
-        <v>198662.3</v>
+        <v>171696.05</v>
       </c>
       <c r="AS20" t="s">
         <v>110</v>
@@ -6494,10 +6494,10 @@
         <v>362000</v>
       </c>
       <c r="AU20">
-        <v>220546.86</v>
+        <v>249054.91</v>
       </c>
       <c r="AV20">
-        <v>173218.99</v>
+        <v>220902.67</v>
       </c>
       <c r="AW20" t="s">
         <v>110</v>
@@ -6506,10 +6506,10 @@
         <v>362000</v>
       </c>
       <c r="AY20">
-        <v>222805.52</v>
+        <v>317410.55</v>
       </c>
       <c r="AZ20">
-        <v>161950.05</v>
+        <v>244963.53</v>
       </c>
       <c r="BA20" t="s">
         <v>110</v>
@@ -6518,10 +6518,10 @@
         <v>362000</v>
       </c>
       <c r="BC20">
-        <v>254114.41</v>
+        <v>283298.79</v>
       </c>
       <c r="BD20">
-        <v>222014.24</v>
+        <v>262006.02</v>
       </c>
       <c r="BE20" t="s">
         <v>110</v>
@@ -6530,10 +6530,10 @@
         <v>362000</v>
       </c>
       <c r="BG20">
-        <v>315523.34</v>
+        <v>297447.76</v>
       </c>
       <c r="BH20">
-        <v>257406.18</v>
+        <v>193863.36</v>
       </c>
       <c r="BI20" t="s">
         <v>110</v>
@@ -6542,10 +6542,10 @@
         <v>362000</v>
       </c>
       <c r="BK20">
-        <v>229037.71</v>
+        <v>298519.21</v>
       </c>
       <c r="BL20">
-        <v>161686.48</v>
+        <v>233610.22</v>
       </c>
       <c r="BM20" t="s">
         <v>110</v>
@@ -6554,10 +6554,10 @@
         <v>362000</v>
       </c>
       <c r="BO20">
-        <v>317345.88</v>
+        <v>316736.3</v>
       </c>
       <c r="BP20">
-        <v>239310.48</v>
+        <v>218029.84</v>
       </c>
       <c r="BQ20" t="s">
         <v>428</v>
@@ -6566,10 +6566,10 @@
         <v>1000000</v>
       </c>
       <c r="BS20">
-        <v>839442.63</v>
+        <v>885957</v>
       </c>
       <c r="BT20">
-        <v>507592.21</v>
+        <v>636246.46</v>
       </c>
       <c r="BU20" t="s">
         <v>435</v>
@@ -6578,10 +6578,10 @@
         <v>500000</v>
       </c>
       <c r="BW20">
-        <v>365269.65</v>
+        <v>434441.33</v>
       </c>
       <c r="BX20">
-        <v>298818.58</v>
+        <v>280759.21</v>
       </c>
       <c r="BY20" t="s">
         <v>110</v>
@@ -6590,10 +6590,10 @@
         <v>500000</v>
       </c>
       <c r="CA20">
-        <v>393677.44</v>
+        <v>435866.44</v>
       </c>
       <c r="CB20">
-        <v>369146.67</v>
+        <v>297991.04</v>
       </c>
       <c r="CC20" t="s">
         <v>110</v>
@@ -6602,10 +6602,10 @@
         <v>500000</v>
       </c>
       <c r="CE20">
-        <v>390038.02</v>
+        <v>452422.26</v>
       </c>
       <c r="CF20">
-        <v>289549.08</v>
+        <v>366109.74</v>
       </c>
       <c r="CG20" t="s">
         <v>110</v>
@@ -6736,10 +6736,10 @@
         <v>500000</v>
       </c>
       <c r="AQ21">
-        <v>346985.9</v>
+        <v>357901.78</v>
       </c>
       <c r="AR21">
-        <v>271536.25</v>
+        <v>278764.39</v>
       </c>
       <c r="AS21" t="s">
         <v>110</v>
@@ -6748,10 +6748,10 @@
         <v>500000</v>
       </c>
       <c r="AU21">
-        <v>430762.49</v>
+        <v>406562.23</v>
       </c>
       <c r="AV21">
-        <v>391826.33</v>
+        <v>338594.02</v>
       </c>
       <c r="AW21" t="s">
         <v>110</v>
@@ -6760,10 +6760,10 @@
         <v>300000</v>
       </c>
       <c r="AY21">
-        <v>275846.27</v>
+        <v>254728.13</v>
       </c>
       <c r="AZ21">
-        <v>182864.06</v>
+        <v>226027.45</v>
       </c>
       <c r="BA21" t="s">
         <v>110</v>
@@ -6772,10 +6772,10 @@
         <v>500000</v>
       </c>
       <c r="BC21">
-        <v>361668.1</v>
+        <v>459496.3</v>
       </c>
       <c r="BD21">
-        <v>217334.27</v>
+        <v>395412.22</v>
       </c>
       <c r="BE21" t="s">
         <v>110</v>
@@ -6784,10 +6784,10 @@
         <v>500000</v>
       </c>
       <c r="BG21">
-        <v>365344.77</v>
+        <v>387703.7</v>
       </c>
       <c r="BH21">
-        <v>334835.89</v>
+        <v>321874.21</v>
       </c>
       <c r="BI21" t="s">
         <v>110</v>
@@ -6796,10 +6796,10 @@
         <v>500000</v>
       </c>
       <c r="BK21">
-        <v>304511.9</v>
+        <v>364032.95</v>
       </c>
       <c r="BL21">
-        <v>262210.91</v>
+        <v>302007.88</v>
       </c>
       <c r="BM21" t="s">
         <v>110</v>
@@ -6808,10 +6808,10 @@
         <v>500000</v>
       </c>
       <c r="BO21">
-        <v>340740.99</v>
+        <v>316032.97</v>
       </c>
       <c r="BP21">
-        <v>313661.01</v>
+        <v>278061.13</v>
       </c>
       <c r="BQ21" t="s">
         <v>110</v>
@@ -6820,10 +6820,10 @@
         <v>500000</v>
       </c>
       <c r="BS21">
-        <v>410867.15</v>
+        <v>471948.37</v>
       </c>
       <c r="BT21">
-        <v>304858.77</v>
+        <v>441417.94</v>
       </c>
       <c r="BU21" t="s">
         <v>110</v>
@@ -6832,10 +6832,10 @@
         <v>500000</v>
       </c>
       <c r="BW21">
-        <v>415924.1</v>
+        <v>395100.46</v>
       </c>
       <c r="BX21">
-        <v>263795.85</v>
+        <v>326949.35</v>
       </c>
       <c r="BY21" t="s">
         <v>110</v>
@@ -6844,10 +6844,10 @@
         <v>500000</v>
       </c>
       <c r="CA21">
-        <v>446419.67</v>
+        <v>410226.51</v>
       </c>
       <c r="CB21">
-        <v>391258.76</v>
+        <v>319674.96</v>
       </c>
       <c r="CC21" t="s">
         <v>110</v>
@@ -6856,10 +6856,10 @@
         <v>500000</v>
       </c>
       <c r="CE21">
-        <v>319580.44</v>
+        <v>416520.33</v>
       </c>
       <c r="CF21">
-        <v>196414.83</v>
+        <v>367279.27</v>
       </c>
       <c r="CG21" t="s">
         <v>110</v>
@@ -7145,10 +7145,10 @@
         <v>70000</v>
       </c>
       <c r="AQ23">
-        <v>57277.21</v>
+        <v>66500</v>
       </c>
       <c r="AR23">
-        <v>50225.36</v>
+        <v>53706.04</v>
       </c>
       <c r="AS23" t="s">
         <v>110</v>
@@ -7157,10 +7157,10 @@
         <v>70000</v>
       </c>
       <c r="AU23">
-        <v>45251.01</v>
+        <v>54307.61</v>
       </c>
       <c r="AV23">
-        <v>32558.47</v>
+        <v>43623.21</v>
       </c>
       <c r="AW23" t="s">
         <v>110</v>
@@ -7169,10 +7169,10 @@
         <v>70000</v>
       </c>
       <c r="AY23">
-        <v>56166.23</v>
+        <v>54391.38</v>
       </c>
       <c r="AZ23">
-        <v>40005.65</v>
+        <v>48311.97</v>
       </c>
       <c r="BA23" t="s">
         <v>110</v>
@@ -7181,10 +7181,10 @@
         <v>70000</v>
       </c>
       <c r="BC23">
-        <v>56693.33</v>
+        <v>54466.35</v>
       </c>
       <c r="BD23">
-        <v>42159.4</v>
+        <v>42481.75</v>
       </c>
       <c r="BE23" t="s">
         <v>110</v>
@@ -7193,10 +7193,10 @@
         <v>70000</v>
       </c>
       <c r="BG23">
-        <v>43079.05</v>
+        <v>55333.28</v>
       </c>
       <c r="BH23">
-        <v>32358.4</v>
+        <v>42179.96</v>
       </c>
       <c r="BI23" t="s">
         <v>110</v>
@@ -7205,10 +7205,10 @@
         <v>70000</v>
       </c>
       <c r="BK23">
-        <v>64355.2</v>
+        <v>53995.9</v>
       </c>
       <c r="BL23">
-        <v>51843.37</v>
+        <v>45812.76</v>
       </c>
       <c r="BM23" t="s">
         <v>110</v>
@@ -7217,10 +7217,10 @@
         <v>70000</v>
       </c>
       <c r="BO23">
-        <v>49668.44</v>
+        <v>55075.95</v>
       </c>
       <c r="BP23">
-        <v>47154.36</v>
+        <v>44469.33</v>
       </c>
       <c r="BQ23" t="s">
         <v>110</v>
@@ -7229,10 +7229,10 @@
         <v>70000</v>
       </c>
       <c r="BS23">
-        <v>53095.44</v>
+        <v>58825.62</v>
       </c>
       <c r="BT23">
-        <v>37362.96</v>
+        <v>48301.11</v>
       </c>
       <c r="BU23" t="s">
         <v>110</v>
@@ -7241,10 +7241,10 @@
         <v>70000</v>
       </c>
       <c r="BW23">
-        <v>59095.68</v>
+        <v>48156.46</v>
       </c>
       <c r="BX23">
-        <v>54079.11</v>
+        <v>32459.22</v>
       </c>
       <c r="BY23" t="s">
         <v>110</v>
@@ -7253,10 +7253,10 @@
         <v>70000</v>
       </c>
       <c r="CA23">
-        <v>45484.38</v>
+        <v>54731.36</v>
       </c>
       <c r="CB23">
-        <v>27653.09</v>
+        <v>40629.89</v>
       </c>
       <c r="CC23" t="s">
         <v>110</v>
@@ -7265,10 +7265,10 @@
         <v>70000</v>
       </c>
       <c r="CE23">
-        <v>56973.69</v>
+        <v>64935.69</v>
       </c>
       <c r="CF23">
-        <v>40435.28</v>
+        <v>47767.41</v>
       </c>
       <c r="CG23" t="s">
         <v>110</v>
@@ -7393,10 +7393,10 @@
         <v>110000</v>
       </c>
       <c r="AQ24">
-        <v>75632.94</v>
+        <v>93196.24000000001</v>
       </c>
       <c r="AR24">
-        <v>64363.72</v>
+        <v>71568.47</v>
       </c>
       <c r="AS24" t="s">
         <v>110</v>
@@ -7405,10 +7405,10 @@
         <v>110000</v>
       </c>
       <c r="AU24">
-        <v>69024.39999999999</v>
+        <v>83850.07000000001</v>
       </c>
       <c r="AV24">
-        <v>61585.43</v>
+        <v>71562.14999999999</v>
       </c>
       <c r="AW24" t="s">
         <v>110</v>
@@ -7417,10 +7417,10 @@
         <v>110000</v>
       </c>
       <c r="AY24">
-        <v>94357.77</v>
+        <v>81801.95</v>
       </c>
       <c r="AZ24">
-        <v>61841.31</v>
+        <v>55647.09</v>
       </c>
       <c r="BA24" t="s">
         <v>110</v>
@@ -7429,10 +7429,10 @@
         <v>110000</v>
       </c>
       <c r="BC24">
-        <v>95199.75</v>
+        <v>90143.92</v>
       </c>
       <c r="BD24">
-        <v>82068.60000000001</v>
+        <v>79132.50999999999</v>
       </c>
       <c r="BE24" t="s">
         <v>110</v>
@@ -7441,10 +7441,10 @@
         <v>110000</v>
       </c>
       <c r="BG24">
-        <v>95130.41</v>
+        <v>97893.92999999999</v>
       </c>
       <c r="BH24">
-        <v>84085.69</v>
+        <v>85052.25999999999</v>
       </c>
       <c r="BI24" t="s">
         <v>110</v>
@@ -7453,10 +7453,10 @@
         <v>100000</v>
       </c>
       <c r="BK24">
-        <v>81594.27</v>
+        <v>72268.21000000001</v>
       </c>
       <c r="BL24">
-        <v>50282.37</v>
+        <v>54808.19</v>
       </c>
       <c r="BM24" t="s">
         <v>110</v>
@@ -7465,10 +7465,10 @@
         <v>100000</v>
       </c>
       <c r="BO24">
-        <v>86856.37</v>
+        <v>92478.86</v>
       </c>
       <c r="BP24">
-        <v>73023.34</v>
+        <v>80981.84</v>
       </c>
       <c r="BQ24" t="s">
         <v>110</v>
@@ -7477,10 +7477,10 @@
         <v>100000</v>
       </c>
       <c r="BS24">
-        <v>64454.64</v>
+        <v>66046.8</v>
       </c>
       <c r="BT24">
-        <v>47728.57</v>
+        <v>54246.4</v>
       </c>
       <c r="BU24" t="s">
         <v>110</v>
@@ -7489,10 +7489,10 @@
         <v>100000</v>
       </c>
       <c r="BW24">
-        <v>60918.83</v>
+        <v>83404.91</v>
       </c>
       <c r="BX24">
-        <v>48307</v>
+        <v>63125.46</v>
       </c>
       <c r="BY24" t="s">
         <v>110</v>
@@ -7501,10 +7501,10 @@
         <v>100000</v>
       </c>
       <c r="CA24">
-        <v>64394.19</v>
+        <v>89446.44</v>
       </c>
       <c r="CB24">
-        <v>55320.99</v>
+        <v>76448.74000000001</v>
       </c>
       <c r="CC24" t="s">
         <v>110</v>
@@ -7513,10 +7513,10 @@
         <v>100000</v>
       </c>
       <c r="CE24">
-        <v>60558.66</v>
+        <v>84956.8</v>
       </c>
       <c r="CF24">
-        <v>45468.24</v>
+        <v>71410.31</v>
       </c>
       <c r="CG24" t="s">
         <v>110</v>
@@ -7641,10 +7641,10 @@
         <v>50000</v>
       </c>
       <c r="AQ25">
-        <v>32059.07</v>
+        <v>41271.36</v>
       </c>
       <c r="AR25">
-        <v>27137.44</v>
+        <v>29259.03</v>
       </c>
       <c r="AS25" t="s">
         <v>110</v>
@@ -7653,10 +7653,10 @@
         <v>50000</v>
       </c>
       <c r="AU25">
-        <v>45003.91</v>
+        <v>38022.05</v>
       </c>
       <c r="AV25">
-        <v>34619.48</v>
+        <v>35498.92</v>
       </c>
       <c r="AW25" t="s">
         <v>110</v>
@@ -7665,10 +7665,10 @@
         <v>50000</v>
       </c>
       <c r="AY25">
-        <v>40430.93</v>
+        <v>35529.66</v>
       </c>
       <c r="AZ25">
-        <v>24258.68</v>
+        <v>24149.62</v>
       </c>
       <c r="BA25" t="s">
         <v>110</v>
@@ -7677,10 +7677,10 @@
         <v>50000</v>
       </c>
       <c r="BC25">
-        <v>46555.55</v>
+        <v>43168.92</v>
       </c>
       <c r="BD25">
-        <v>35067.35</v>
+        <v>37996.28</v>
       </c>
       <c r="BE25" t="s">
         <v>110</v>
@@ -7689,10 +7689,10 @@
         <v>50000</v>
       </c>
       <c r="BG25">
-        <v>33539.87</v>
+        <v>41568.72</v>
       </c>
       <c r="BH25">
-        <v>20682.75</v>
+        <v>33494.91</v>
       </c>
       <c r="BI25" t="s">
         <v>110</v>
@@ -7701,10 +7701,10 @@
         <v>50000</v>
       </c>
       <c r="BK25">
-        <v>38816.17</v>
+        <v>37429.49</v>
       </c>
       <c r="BL25">
-        <v>30447.61</v>
+        <v>34505.25</v>
       </c>
       <c r="BM25" t="s">
         <v>110</v>
@@ -7713,10 +7713,10 @@
         <v>4000</v>
       </c>
       <c r="BO25">
-        <v>2417.36</v>
+        <v>3390.94</v>
       </c>
       <c r="BP25">
-        <v>1829.91</v>
+        <v>2550.78</v>
       </c>
       <c r="BQ25" t="s">
         <v>110</v>
@@ -7725,10 +7725,10 @@
         <v>4000</v>
       </c>
       <c r="BS25">
-        <v>2831.48</v>
+        <v>2654.41</v>
       </c>
       <c r="BT25">
-        <v>2650.38</v>
+        <v>1912.17</v>
       </c>
       <c r="BU25" t="s">
         <v>110</v>
@@ -7737,10 +7737,10 @@
         <v>4000</v>
       </c>
       <c r="BW25">
-        <v>3245.42</v>
+        <v>2875.73</v>
       </c>
       <c r="BX25">
-        <v>2753.53</v>
+        <v>2041.2</v>
       </c>
       <c r="BY25" t="s">
         <v>110</v>
@@ -7749,10 +7749,10 @@
         <v>4000</v>
       </c>
       <c r="CA25">
-        <v>2975</v>
+        <v>3646.03</v>
       </c>
       <c r="CB25">
-        <v>1907.32</v>
+        <v>2935.33</v>
       </c>
       <c r="CC25" t="s">
         <v>110</v>
@@ -7761,10 +7761,10 @@
         <v>4000</v>
       </c>
       <c r="CE25">
-        <v>2829.47</v>
+        <v>3218.86</v>
       </c>
       <c r="CF25">
-        <v>2268.7</v>
+        <v>2873.69</v>
       </c>
       <c r="CG25" t="s">
         <v>110</v>
@@ -7886,10 +7886,10 @@
         <v>73896</v>
       </c>
       <c r="AQ26">
-        <v>68113.89</v>
+        <v>63065.3</v>
       </c>
       <c r="AR26">
-        <v>42895.35</v>
+        <v>39339.7</v>
       </c>
       <c r="AS26" t="s">
         <v>110</v>
@@ -7898,10 +7898,10 @@
         <v>73896</v>
       </c>
       <c r="AU26">
-        <v>44875.44</v>
+        <v>56974.43</v>
       </c>
       <c r="AV26">
-        <v>28530.43</v>
+        <v>53393.07</v>
       </c>
       <c r="AW26" t="s">
         <v>110</v>
@@ -7910,10 +7910,10 @@
         <v>73896</v>
       </c>
       <c r="AY26">
-        <v>50869.81</v>
+        <v>70156.94</v>
       </c>
       <c r="AZ26">
-        <v>33409.15</v>
+        <v>58476.34</v>
       </c>
       <c r="BA26" t="s">
         <v>110</v>
@@ -7922,10 +7922,10 @@
         <v>73896</v>
       </c>
       <c r="BC26">
-        <v>56817.09</v>
+        <v>61172.91</v>
       </c>
       <c r="BD26">
-        <v>42052.71</v>
+        <v>49285.69</v>
       </c>
       <c r="BE26" t="s">
         <v>110</v>
@@ -7934,10 +7934,10 @@
         <v>73896</v>
       </c>
       <c r="BG26">
-        <v>65102.22</v>
+        <v>62005.94</v>
       </c>
       <c r="BH26">
-        <v>48674.48</v>
+        <v>44136.6</v>
       </c>
       <c r="BI26" t="s">
         <v>110</v>
@@ -7946,10 +7946,10 @@
         <v>73896</v>
       </c>
       <c r="BK26">
-        <v>45345.62</v>
+        <v>67938.17999999999</v>
       </c>
       <c r="BL26">
-        <v>39624.61</v>
+        <v>55095.41</v>
       </c>
       <c r="BM26" t="s">
         <v>423</v>
@@ -7958,10 +7958,10 @@
         <v>366031</v>
       </c>
       <c r="BO26">
-        <v>283989.32</v>
+        <v>315923.98</v>
       </c>
       <c r="BP26">
-        <v>207804</v>
+        <v>233650.34</v>
       </c>
       <c r="BQ26" t="s">
         <v>429</v>
@@ -7970,10 +7970,10 @@
         <v>1098324</v>
       </c>
       <c r="BS26">
-        <v>1021703.6</v>
+        <v>781087</v>
       </c>
       <c r="BT26">
-        <v>843284.5699999999</v>
+        <v>606231.22</v>
       </c>
       <c r="BU26" t="s">
         <v>436</v>
@@ -7982,10 +7982,10 @@
         <v>1746422</v>
       </c>
       <c r="BW26">
-        <v>1283653.41</v>
+        <v>1516838.48</v>
       </c>
       <c r="BX26">
-        <v>1138021.15</v>
+        <v>1368084.58</v>
       </c>
       <c r="BY26" t="s">
         <v>110</v>
@@ -7994,10 +7994,10 @@
         <v>1746422</v>
       </c>
       <c r="CA26">
-        <v>1499577.17</v>
+        <v>1165717.74</v>
       </c>
       <c r="CB26">
-        <v>1001874.12</v>
+        <v>865641.58</v>
       </c>
       <c r="CC26" t="s">
         <v>110</v>
@@ -8006,10 +8006,10 @@
         <v>1746422</v>
       </c>
       <c r="CE26">
-        <v>1616199.84</v>
+        <v>1225319.63</v>
       </c>
       <c r="CF26">
-        <v>1143870.64</v>
+        <v>916071.5699999999</v>
       </c>
       <c r="CG26" t="s">
         <v>110</v>
@@ -8131,10 +8131,10 @@
         <v>10283</v>
       </c>
       <c r="AQ27">
-        <v>6589.82</v>
+        <v>8178.55</v>
       </c>
       <c r="AR27">
-        <v>5239.1</v>
+        <v>5456.22</v>
       </c>
       <c r="AS27" t="s">
         <v>110</v>
@@ -8143,10 +8143,10 @@
         <v>10283</v>
       </c>
       <c r="AU27">
-        <v>8416.9</v>
+        <v>8624.26</v>
       </c>
       <c r="AV27">
-        <v>7944.85</v>
+        <v>7405.59</v>
       </c>
       <c r="AW27" t="s">
         <v>110</v>
@@ -8155,10 +8155,10 @@
         <v>10283</v>
       </c>
       <c r="AY27">
-        <v>6924.99</v>
+        <v>7661.7</v>
       </c>
       <c r="AZ27">
-        <v>6240.45</v>
+        <v>5531.47</v>
       </c>
       <c r="BA27" t="s">
         <v>110</v>
@@ -8167,10 +8167,10 @@
         <v>10283</v>
       </c>
       <c r="BC27">
-        <v>7238.5</v>
+        <v>7170.26</v>
       </c>
       <c r="BD27">
-        <v>5959.06</v>
+        <v>6352.03</v>
       </c>
       <c r="BE27" t="s">
         <v>110</v>
@@ -8179,10 +8179,10 @@
         <v>10283</v>
       </c>
       <c r="BG27">
-        <v>6686.35</v>
+        <v>9122.110000000001</v>
       </c>
       <c r="BH27">
-        <v>4212.06</v>
+        <v>6567.54</v>
       </c>
       <c r="BI27" t="s">
         <v>110</v>
@@ -8191,10 +8191,10 @@
         <v>10283</v>
       </c>
       <c r="BK27">
-        <v>7171.49</v>
+        <v>8200.860000000001</v>
       </c>
       <c r="BL27">
-        <v>6118.76</v>
+        <v>7135</v>
       </c>
       <c r="BM27" t="s">
         <v>110</v>
@@ -8203,10 +8203,10 @@
         <v>10283</v>
       </c>
       <c r="BO27">
-        <v>6709.56</v>
+        <v>7907.72</v>
       </c>
       <c r="BP27">
-        <v>4888.64</v>
+        <v>6086.93</v>
       </c>
       <c r="BQ27" t="s">
         <v>430</v>
@@ -8215,10 +8215,10 @@
         <v>10283</v>
       </c>
       <c r="BS27">
-        <v>9422.27</v>
+        <v>8488.34</v>
       </c>
       <c r="BT27">
-        <v>8130.91</v>
+        <v>6630.98</v>
       </c>
       <c r="BU27" t="s">
         <v>110</v>
@@ -8227,10 +8227,10 @@
         <v>10283</v>
       </c>
       <c r="BW27">
-        <v>8112.91</v>
+        <v>8197.889999999999</v>
       </c>
       <c r="BX27">
-        <v>6028.93</v>
+        <v>6802.54</v>
       </c>
       <c r="BY27" t="s">
         <v>110</v>
@@ -8239,10 +8239,10 @@
         <v>10283</v>
       </c>
       <c r="CA27">
-        <v>8289.799999999999</v>
+        <v>9188.959999999999</v>
       </c>
       <c r="CB27">
-        <v>7125.41</v>
+        <v>7098.89</v>
       </c>
       <c r="CC27" t="s">
         <v>110</v>
@@ -8251,10 +8251,10 @@
         <v>10283</v>
       </c>
       <c r="CE27">
-        <v>9758.540000000001</v>
+        <v>8333.690000000001</v>
       </c>
       <c r="CF27">
-        <v>6149.01</v>
+        <v>5772.71</v>
       </c>
       <c r="CG27" t="s">
         <v>110</v>
@@ -8379,10 +8379,10 @@
         <v>30000</v>
       </c>
       <c r="AQ28">
-        <v>18487.2</v>
+        <v>21787.6</v>
       </c>
       <c r="AR28">
-        <v>12304.83</v>
+        <v>14439.24</v>
       </c>
       <c r="AS28" t="s">
         <v>110</v>
@@ -8391,10 +8391,10 @@
         <v>30000</v>
       </c>
       <c r="AU28">
-        <v>26808.07</v>
+        <v>20373.42</v>
       </c>
       <c r="AV28">
-        <v>23571.61</v>
+        <v>17027.68</v>
       </c>
       <c r="AW28" t="s">
         <v>110</v>
@@ -8403,10 +8403,10 @@
         <v>30000</v>
       </c>
       <c r="AY28">
-        <v>27605.36</v>
+        <v>22477.25</v>
       </c>
       <c r="AZ28">
-        <v>23858.24</v>
+        <v>19268.79</v>
       </c>
       <c r="BA28" t="s">
         <v>110</v>
@@ -8415,10 +8415,10 @@
         <v>30000</v>
       </c>
       <c r="BC28">
-        <v>26694.39</v>
+        <v>20534.61</v>
       </c>
       <c r="BD28">
-        <v>17491.06</v>
+        <v>17594.62</v>
       </c>
       <c r="BE28" t="s">
         <v>110</v>
@@ -8427,10 +8427,10 @@
         <v>30000</v>
       </c>
       <c r="BG28">
-        <v>24726.72</v>
+        <v>26008.98</v>
       </c>
       <c r="BH28">
-        <v>19879.94</v>
+        <v>16808.33</v>
       </c>
       <c r="BI28" t="s">
         <v>110</v>
@@ -8439,10 +8439,10 @@
         <v>30000</v>
       </c>
       <c r="BK28">
-        <v>22230.72</v>
+        <v>22199.48</v>
       </c>
       <c r="BL28">
-        <v>21085.31</v>
+        <v>15613.89</v>
       </c>
       <c r="BM28" t="s">
         <v>110</v>
@@ -8451,10 +8451,10 @@
         <v>30000</v>
       </c>
       <c r="BO28">
-        <v>18787.22</v>
+        <v>23697.56</v>
       </c>
       <c r="BP28">
-        <v>13185.28</v>
+        <v>16506.41</v>
       </c>
       <c r="BQ28" t="s">
         <v>431</v>
@@ -8463,10 +8463,10 @@
         <v>10000</v>
       </c>
       <c r="BS28">
-        <v>7210.62</v>
+        <v>8620.219999999999</v>
       </c>
       <c r="BT28">
-        <v>5850.45</v>
+        <v>6085.72</v>
       </c>
       <c r="BU28" t="s">
         <v>110</v>
@@ -8475,10 +8475,10 @@
         <v>5000</v>
       </c>
       <c r="BW28">
-        <v>4258.7</v>
+        <v>4166.59</v>
       </c>
       <c r="BX28">
-        <v>3937.51</v>
+        <v>2771.04</v>
       </c>
       <c r="BY28" t="s">
         <v>110</v>
@@ -8487,10 +8487,10 @@
         <v>5000</v>
       </c>
       <c r="CA28">
-        <v>4064.11</v>
+        <v>4750</v>
       </c>
       <c r="CB28">
-        <v>3851.85</v>
+        <v>3760.04</v>
       </c>
       <c r="CC28" t="s">
         <v>110</v>
@@ -8499,10 +8499,10 @@
         <v>5000</v>
       </c>
       <c r="CE28">
-        <v>3154.49</v>
+        <v>4692.52</v>
       </c>
       <c r="CF28">
-        <v>2679.85</v>
+        <v>3791.18</v>
       </c>
       <c r="CG28" t="s">
         <v>110</v>
@@ -8624,10 +8624,10 @@
         <v>290000</v>
       </c>
       <c r="AQ29">
-        <v>193304.5</v>
+        <v>229759.68</v>
       </c>
       <c r="AR29">
-        <v>148542.26</v>
+        <v>165063.44</v>
       </c>
       <c r="AS29" t="s">
         <v>110</v>
@@ -8636,10 +8636,10 @@
         <v>290000</v>
       </c>
       <c r="AU29">
-        <v>216423.94</v>
+        <v>221461.49</v>
       </c>
       <c r="AV29">
-        <v>204482.6</v>
+        <v>177625.64</v>
       </c>
       <c r="AW29" t="s">
         <v>110</v>
@@ -8648,10 +8648,10 @@
         <v>290000</v>
       </c>
       <c r="AY29">
-        <v>233895.81</v>
+        <v>237182.04</v>
       </c>
       <c r="AZ29">
-        <v>159236.22</v>
+        <v>170094.38</v>
       </c>
       <c r="BA29" t="s">
         <v>110</v>
@@ -8660,10 +8660,10 @@
         <v>290000</v>
       </c>
       <c r="BC29">
-        <v>273656.69</v>
+        <v>226540.67</v>
       </c>
       <c r="BD29">
-        <v>229688.97</v>
+        <v>215213.63</v>
       </c>
       <c r="BE29" t="s">
         <v>110</v>
@@ -8672,10 +8672,10 @@
         <v>290000</v>
       </c>
       <c r="BG29">
-        <v>260680.02</v>
+        <v>235806.1</v>
       </c>
       <c r="BH29">
-        <v>159288.12</v>
+        <v>184527.74</v>
       </c>
       <c r="BI29" t="s">
         <v>418</v>
@@ -8684,10 +8684,10 @@
         <v>592196</v>
       </c>
       <c r="BK29">
-        <v>399301.06</v>
+        <v>418519.4</v>
       </c>
       <c r="BL29">
-        <v>247719.37</v>
+        <v>364078.9</v>
       </c>
       <c r="BM29" t="s">
         <v>110</v>
@@ -8696,10 +8696,10 @@
         <v>837628</v>
       </c>
       <c r="BO29">
-        <v>527109.04</v>
+        <v>683966.61</v>
       </c>
       <c r="BP29">
-        <v>455078.65</v>
+        <v>542768.1899999999</v>
       </c>
       <c r="BQ29" t="s">
         <v>432</v>
@@ -8708,10 +8708,10 @@
         <v>1009120</v>
       </c>
       <c r="BS29">
-        <v>683288.52</v>
+        <v>752328.6800000001</v>
       </c>
       <c r="BT29">
-        <v>574319.64</v>
+        <v>637694.7</v>
       </c>
       <c r="BU29" t="s">
         <v>437</v>
@@ -8720,10 +8720,10 @@
         <v>510278</v>
       </c>
       <c r="BW29">
-        <v>451188.1</v>
+        <v>416360.17</v>
       </c>
       <c r="BX29">
-        <v>417679.57</v>
+        <v>347570.7</v>
       </c>
       <c r="BY29" t="s">
         <v>110</v>
@@ -8732,10 +8732,10 @@
         <v>510248</v>
       </c>
       <c r="CA29">
-        <v>383684.53</v>
+        <v>457003.5</v>
       </c>
       <c r="CB29">
-        <v>272082.89</v>
+        <v>374813.34</v>
       </c>
       <c r="CC29" t="s">
         <v>110</v>
@@ -8744,10 +8744,10 @@
         <v>510248</v>
       </c>
       <c r="CE29">
-        <v>439844.56</v>
+        <v>405152.61</v>
       </c>
       <c r="CF29">
-        <v>329005.89</v>
+        <v>302051.13</v>
       </c>
       <c r="CG29" t="s">
         <v>110</v>
@@ -8872,10 +8872,10 @@
         <v>75000</v>
       </c>
       <c r="AQ30">
-        <v>51522.78</v>
+        <v>54566.84</v>
       </c>
       <c r="AR30">
-        <v>39488.76</v>
+        <v>44462.92</v>
       </c>
       <c r="AS30" t="s">
         <v>110</v>
@@ -8884,10 +8884,10 @@
         <v>75000</v>
       </c>
       <c r="AU30">
-        <v>66655.53999999999</v>
+        <v>61254.76</v>
       </c>
       <c r="AV30">
-        <v>47823.92</v>
+        <v>47114.13</v>
       </c>
       <c r="AW30" t="s">
         <v>110</v>
@@ -8896,10 +8896,10 @@
         <v>75000</v>
       </c>
       <c r="AY30">
-        <v>52211.44</v>
+        <v>71250</v>
       </c>
       <c r="AZ30">
-        <v>36989.79</v>
+        <v>54251</v>
       </c>
       <c r="BA30" t="s">
         <v>110</v>
@@ -8908,10 +8908,10 @@
         <v>75000</v>
       </c>
       <c r="BC30">
-        <v>65477.91</v>
+        <v>59404.03</v>
       </c>
       <c r="BD30">
-        <v>62177.76</v>
+        <v>50294.29</v>
       </c>
       <c r="BE30" t="s">
         <v>110</v>
@@ -8920,10 +8920,10 @@
         <v>75000</v>
       </c>
       <c r="BG30">
-        <v>67796.21000000001</v>
+        <v>66610.28</v>
       </c>
       <c r="BH30">
-        <v>61730.83</v>
+        <v>56879.34</v>
       </c>
       <c r="BI30" t="s">
         <v>110</v>
@@ -8932,10 +8932,10 @@
         <v>75000</v>
       </c>
       <c r="BK30">
-        <v>70722.52</v>
+        <v>60985.84</v>
       </c>
       <c r="BL30">
-        <v>48469.3</v>
+        <v>38766.4</v>
       </c>
       <c r="BM30" t="s">
         <v>110</v>
@@ -8944,10 +8944,10 @@
         <v>125000</v>
       </c>
       <c r="BO30">
-        <v>104363.13</v>
+        <v>104335.73</v>
       </c>
       <c r="BP30">
-        <v>96950.91</v>
+        <v>86516.77</v>
       </c>
       <c r="BQ30" t="s">
         <v>110</v>
@@ -8956,10 +8956,10 @@
         <v>50000</v>
       </c>
       <c r="BS30">
-        <v>30784.13</v>
+        <v>33962.53</v>
       </c>
       <c r="BT30">
-        <v>27427.72</v>
+        <v>30165.52</v>
       </c>
       <c r="BU30" t="s">
         <v>110</v>
@@ -8968,10 +8968,10 @@
         <v>50000</v>
       </c>
       <c r="BW30">
-        <v>34653.86</v>
+        <v>37139.92</v>
       </c>
       <c r="BX30">
-        <v>22229.74</v>
+        <v>28687.69</v>
       </c>
       <c r="BY30" t="s">
         <v>110</v>
@@ -8980,10 +8980,10 @@
         <v>50000</v>
       </c>
       <c r="CA30">
-        <v>33520.94</v>
+        <v>41964.1</v>
       </c>
       <c r="CB30">
-        <v>26023.07</v>
+        <v>35581.41</v>
       </c>
       <c r="CC30" t="s">
         <v>110</v>
@@ -8992,10 +8992,10 @@
         <v>50000</v>
       </c>
       <c r="CE30">
-        <v>35005.83</v>
+        <v>37258.42</v>
       </c>
       <c r="CF30">
-        <v>30731.64</v>
+        <v>31937.24</v>
       </c>
       <c r="CG30" t="s">
         <v>110</v>
@@ -9126,10 +9126,10 @@
         <v>104057</v>
       </c>
       <c r="AQ31">
-        <v>81415.39999999999</v>
+        <v>88267.13</v>
       </c>
       <c r="AR31">
-        <v>69669.24000000001</v>
+        <v>70684.44</v>
       </c>
       <c r="AS31" t="s">
         <v>110</v>
@@ -9138,10 +9138,10 @@
         <v>104057</v>
       </c>
       <c r="AU31">
-        <v>89694.21000000001</v>
+        <v>94786.97</v>
       </c>
       <c r="AV31">
-        <v>67394.71000000001</v>
+        <v>70261.69</v>
       </c>
       <c r="AW31" t="s">
         <v>110</v>
@@ -9150,10 +9150,10 @@
         <v>104057</v>
       </c>
       <c r="AY31">
-        <v>90732.7</v>
+        <v>86932.38</v>
       </c>
       <c r="AZ31">
-        <v>62470.33</v>
+        <v>77483.88</v>
       </c>
       <c r="BA31" t="s">
         <v>110</v>
@@ -9162,10 +9162,10 @@
         <v>104057</v>
       </c>
       <c r="BC31">
-        <v>80791</v>
+        <v>80185.48</v>
       </c>
       <c r="BD31">
-        <v>50490.49</v>
+        <v>64733.87</v>
       </c>
       <c r="BE31" t="s">
         <v>110</v>
@@ -9174,10 +9174,10 @@
         <v>864209</v>
       </c>
       <c r="BG31">
-        <v>653519.0699999999</v>
+        <v>731778.88</v>
       </c>
       <c r="BH31">
-        <v>409647.49</v>
+        <v>539158.95</v>
       </c>
       <c r="BI31" t="s">
         <v>419</v>
@@ -9186,10 +9186,10 @@
         <v>820998</v>
       </c>
       <c r="BK31">
-        <v>675160.77</v>
+        <v>719074.12</v>
       </c>
       <c r="BL31">
-        <v>493609.28</v>
+        <v>595434.46</v>
       </c>
       <c r="BM31" t="s">
         <v>110</v>
@@ -9198,10 +9198,10 @@
         <v>820998</v>
       </c>
       <c r="BO31">
-        <v>601771.08</v>
+        <v>665825.64</v>
       </c>
       <c r="BP31">
-        <v>526652.2</v>
+        <v>567896.87</v>
       </c>
       <c r="BQ31" t="s">
         <v>110</v>
@@ -9210,10 +9210,10 @@
         <v>820998</v>
       </c>
       <c r="BS31">
-        <v>660189.48</v>
+        <v>636286.1899999999</v>
       </c>
       <c r="BT31">
-        <v>409616.82</v>
+        <v>499287.1</v>
       </c>
       <c r="BU31" t="s">
         <v>110</v>
@@ -9222,10 +9222,10 @@
         <v>820998</v>
       </c>
       <c r="BW31">
-        <v>646143.77</v>
+        <v>712631.35</v>
       </c>
       <c r="BX31">
-        <v>397734.22</v>
+        <v>545360.88</v>
       </c>
       <c r="BY31" t="s">
         <v>110</v>
@@ -9234,10 +9234,10 @@
         <v>820998</v>
       </c>
       <c r="CA31">
-        <v>737558.3100000001</v>
+        <v>600017.95</v>
       </c>
       <c r="CB31">
-        <v>686976.79</v>
+        <v>507113.18</v>
       </c>
       <c r="CC31" t="s">
         <v>110</v>
@@ -9246,10 +9246,10 @@
         <v>820998</v>
       </c>
       <c r="CE31">
-        <v>767373.39</v>
+        <v>599559.85</v>
       </c>
       <c r="CF31">
-        <v>726292.5600000001</v>
+        <v>342771.55</v>
       </c>
       <c r="CG31" t="s">
         <v>110</v>
@@ -9529,10 +9529,10 @@
         <v>192400</v>
       </c>
       <c r="AQ33">
-        <v>179143.11</v>
+        <v>143462.74</v>
       </c>
       <c r="AR33">
-        <v>139070.86</v>
+        <v>102761.86</v>
       </c>
       <c r="AS33" t="s">
         <v>110</v>
@@ -9541,10 +9541,10 @@
         <v>192400</v>
       </c>
       <c r="AU33">
-        <v>159915.08</v>
+        <v>144583.95</v>
       </c>
       <c r="AV33">
-        <v>150243.23</v>
+        <v>107500.34</v>
       </c>
       <c r="AW33" t="s">
         <v>110</v>
@@ -9553,10 +9553,10 @@
         <v>192400</v>
       </c>
       <c r="AY33">
-        <v>180988.04</v>
+        <v>147087.07</v>
       </c>
       <c r="AZ33">
-        <v>159045.45</v>
+        <v>100199.71</v>
       </c>
       <c r="BA33" t="s">
         <v>110</v>
@@ -9565,10 +9565,10 @@
         <v>192400</v>
       </c>
       <c r="BC33">
-        <v>168658.24</v>
+        <v>140349.51</v>
       </c>
       <c r="BD33">
-        <v>152596.6</v>
+        <v>101859.12</v>
       </c>
       <c r="BE33" t="s">
         <v>110</v>
@@ -9577,10 +9577,10 @@
         <v>192400</v>
       </c>
       <c r="BG33">
-        <v>179193.69</v>
+        <v>155443.3</v>
       </c>
       <c r="BH33">
-        <v>112033.77</v>
+        <v>129144.77</v>
       </c>
       <c r="BI33" t="s">
         <v>420</v>
@@ -9589,10 +9589,10 @@
         <v>112000</v>
       </c>
       <c r="BK33">
-        <v>92273.41</v>
+        <v>92745.7</v>
       </c>
       <c r="BL33">
-        <v>74614.17</v>
+        <v>74653.94</v>
       </c>
       <c r="BM33" t="s">
         <v>424</v>
@@ -9601,10 +9601,10 @@
         <v>300000</v>
       </c>
       <c r="BO33">
-        <v>241698.76</v>
+        <v>217256.72</v>
       </c>
       <c r="BP33">
-        <v>199676.1</v>
+        <v>155239.83</v>
       </c>
       <c r="BQ33" t="s">
         <v>433</v>
@@ -9613,10 +9613,10 @@
         <v>50000</v>
       </c>
       <c r="BS33">
-        <v>45255.82</v>
+        <v>35500.68</v>
       </c>
       <c r="BT33">
-        <v>41055.88</v>
+        <v>29661.53</v>
       </c>
       <c r="BU33" t="s">
         <v>110</v>
@@ -9625,10 +9625,10 @@
         <v>50000</v>
       </c>
       <c r="BW33">
-        <v>41805.32</v>
+        <v>35966.88</v>
       </c>
       <c r="BX33">
-        <v>28594.86</v>
+        <v>27263.6</v>
       </c>
       <c r="BY33" t="s">
         <v>110</v>
@@ -9637,10 +9637,10 @@
         <v>50000</v>
       </c>
       <c r="CA33">
-        <v>47010.96</v>
+        <v>39054.55</v>
       </c>
       <c r="CB33">
-        <v>36949.79</v>
+        <v>32269.95</v>
       </c>
       <c r="CC33" t="s">
         <v>110</v>
@@ -9649,10 +9649,10 @@
         <v>50000</v>
       </c>
       <c r="CE33">
-        <v>41102.95</v>
+        <v>39515.3</v>
       </c>
       <c r="CF33">
-        <v>35309.08</v>
+        <v>30006.11</v>
       </c>
       <c r="CG33" t="s">
         <v>110</v>
@@ -9771,10 +9771,10 @@
         <v>1057935</v>
       </c>
       <c r="AQ34">
-        <v>766211.4</v>
+        <v>732317.16</v>
       </c>
       <c r="AR34">
-        <v>529104.37</v>
+        <v>583362.24</v>
       </c>
       <c r="AS34" t="s">
         <v>110</v>
@@ -9783,10 +9783,10 @@
         <v>1057935</v>
       </c>
       <c r="AU34">
-        <v>726016.4</v>
+        <v>654042.02</v>
       </c>
       <c r="AV34">
-        <v>637624.46</v>
+        <v>536435.98</v>
       </c>
       <c r="AW34" t="s">
         <v>110</v>
@@ -9795,10 +9795,10 @@
         <v>1057935</v>
       </c>
       <c r="AY34">
-        <v>1004933.73</v>
+        <v>911597.63</v>
       </c>
       <c r="AZ34">
-        <v>764465.65</v>
+        <v>759607.92</v>
       </c>
       <c r="BA34" t="s">
         <v>110</v>
@@ -9807,10 +9807,10 @@
         <v>1057935</v>
       </c>
       <c r="BC34">
-        <v>694892.97</v>
+        <v>1005038.25</v>
       </c>
       <c r="BD34">
-        <v>422806.31</v>
+        <v>613462.86</v>
       </c>
       <c r="BE34" t="s">
         <v>110</v>
@@ -9819,10 +9819,10 @@
         <v>1057935</v>
       </c>
       <c r="BG34">
-        <v>853474.63</v>
+        <v>927922.0600000001</v>
       </c>
       <c r="BH34">
-        <v>659398.58</v>
+        <v>881525.96</v>
       </c>
       <c r="BI34" t="s">
         <v>110</v>
@@ -9831,10 +9831,10 @@
         <v>772641</v>
       </c>
       <c r="BK34">
-        <v>654848.6800000001</v>
+        <v>713243.12</v>
       </c>
       <c r="BL34">
-        <v>397136.37</v>
+        <v>540173.6800000001</v>
       </c>
       <c r="BM34" t="s">
         <v>110</v>
@@ -9843,10 +9843,10 @@
         <v>772641</v>
       </c>
       <c r="BO34">
-        <v>611631.46</v>
+        <v>649544.88</v>
       </c>
       <c r="BP34">
-        <v>533774.47</v>
+        <v>565577.55</v>
       </c>
       <c r="BQ34" t="s">
         <v>110</v>
@@ -9855,10 +9855,10 @@
         <v>772641</v>
       </c>
       <c r="BS34">
-        <v>694206.77</v>
+        <v>699498.6</v>
       </c>
       <c r="BT34">
-        <v>604658.05</v>
+        <v>473477.28</v>
       </c>
       <c r="BU34" t="s">
         <v>110</v>
@@ -9867,10 +9867,10 @@
         <v>772641</v>
       </c>
       <c r="BW34">
-        <v>586451.9300000001</v>
+        <v>450739.57</v>
       </c>
       <c r="BX34">
-        <v>486430.59</v>
+        <v>310988.4</v>
       </c>
       <c r="BY34" t="s">
         <v>110</v>
@@ -9879,10 +9879,10 @@
         <v>772641</v>
       </c>
       <c r="CA34">
-        <v>627261.74</v>
+        <v>558480.66</v>
       </c>
       <c r="CB34">
-        <v>504029.22</v>
+        <v>479626.62</v>
       </c>
       <c r="CC34" t="s">
         <v>110</v>
@@ -9891,10 +9891,10 @@
         <v>772641</v>
       </c>
       <c r="CE34">
-        <v>685940.1</v>
+        <v>674160.47</v>
       </c>
       <c r="CF34">
-        <v>603355.95</v>
+        <v>555314.9399999999</v>
       </c>
       <c r="CG34" t="s">
         <v>110</v>
@@ -10019,10 +10019,10 @@
         <v>248543</v>
       </c>
       <c r="AQ35">
-        <v>204334.66</v>
+        <v>211879.27</v>
       </c>
       <c r="AR35">
-        <v>190035.52</v>
+        <v>179301.33</v>
       </c>
       <c r="AS35" t="s">
         <v>110</v>
@@ -10031,10 +10031,10 @@
         <v>248543</v>
       </c>
       <c r="AU35">
-        <v>200482.49</v>
+        <v>197455.64</v>
       </c>
       <c r="AV35">
-        <v>186947.88</v>
+        <v>157569.72</v>
       </c>
       <c r="AW35" t="s">
         <v>110</v>
@@ -10043,10 +10043,10 @@
         <v>248543</v>
       </c>
       <c r="AY35">
-        <v>200391.49</v>
+        <v>174135.26</v>
       </c>
       <c r="AZ35">
-        <v>139901.42</v>
+        <v>165428.5</v>
       </c>
       <c r="BA35" t="s">
         <v>110</v>
@@ -10055,10 +10055,10 @@
         <v>248543</v>
       </c>
       <c r="BC35">
-        <v>160941.11</v>
+        <v>214868.22</v>
       </c>
       <c r="BD35">
-        <v>114813.5</v>
+        <v>156399.93</v>
       </c>
       <c r="BE35" t="s">
         <v>110</v>
@@ -10067,10 +10067,10 @@
         <v>248543</v>
       </c>
       <c r="BG35">
-        <v>221770.01</v>
+        <v>177115.17</v>
       </c>
       <c r="BH35">
-        <v>172074.1</v>
+        <v>146360.33</v>
       </c>
       <c r="BI35" t="s">
         <v>421</v>
@@ -10079,10 +10079,10 @@
         <v>248543</v>
       </c>
       <c r="BK35">
-        <v>221866.38</v>
+        <v>171491.19</v>
       </c>
       <c r="BL35">
-        <v>170289.78</v>
+        <v>144305.64</v>
       </c>
       <c r="BM35" t="s">
         <v>110</v>
@@ -10091,10 +10091,10 @@
         <v>243237</v>
       </c>
       <c r="BO35">
-        <v>149517.05</v>
+        <v>202265.37</v>
       </c>
       <c r="BP35">
-        <v>93922.25</v>
+        <v>172427.6</v>
       </c>
       <c r="BQ35" t="s">
         <v>110</v>
@@ -10103,10 +10103,10 @@
         <v>243237</v>
       </c>
       <c r="BS35">
-        <v>203655.99</v>
+        <v>227247.14</v>
       </c>
       <c r="BT35">
-        <v>150485.12</v>
+        <v>177031.59</v>
       </c>
       <c r="BU35" t="s">
         <v>110</v>
@@ -10115,10 +10115,10 @@
         <v>243237</v>
       </c>
       <c r="BW35">
-        <v>187069.53</v>
+        <v>212565.93</v>
       </c>
       <c r="BX35">
-        <v>127697.72</v>
+        <v>152647.99</v>
       </c>
       <c r="BY35" t="s">
         <v>110</v>
@@ -10127,10 +10127,10 @@
         <v>243237</v>
       </c>
       <c r="CA35">
-        <v>185611.8</v>
+        <v>183700.8</v>
       </c>
       <c r="CB35">
-        <v>121257.21</v>
+        <v>135014.05</v>
       </c>
       <c r="CC35" t="s">
         <v>110</v>
@@ -10139,10 +10139,10 @@
         <v>243237</v>
       </c>
       <c r="CE35">
-        <v>230512.62</v>
+        <v>230609.7</v>
       </c>
       <c r="CF35">
-        <v>203692.74</v>
+        <v>160974.88</v>
       </c>
       <c r="CG35" t="s">
         <v>110</v>
